--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
@@ -406,16 +406,16 @@
         <v>0.9000369486989319</v>
       </c>
       <c r="D2">
-        <v>0.5055372562741492</v>
+        <v>0.5055372562741491</v>
       </c>
       <c r="E2">
         <v>0.8761831439160546</v>
       </c>
       <c r="F2">
-        <v>0.5804057579587106</v>
+        <v>0.5804057579587105</v>
       </c>
       <c r="G2">
-        <v>0.8712428905033228</v>
+        <v>0.8712428905033227</v>
       </c>
       <c r="H2">
         <v>0.8664745388855953</v>
@@ -441,7 +441,7 @@
         <v>0.6207365870683349</v>
       </c>
       <c r="G3">
-        <v>0.9349881729693846</v>
+        <v>0.9349881729693845</v>
       </c>
       <c r="H3">
         <v>0.928846333391643</v>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6113085041320792</v>
+        <v>0.6113085041320793</v>
       </c>
       <c r="C4">
         <v>0.9177789048478581</v>
@@ -461,16 +461,16 @@
         <v>0.4375004993603231</v>
       </c>
       <c r="E4">
-        <v>0.8920694870009451</v>
+        <v>0.892069487000945</v>
       </c>
       <c r="F4">
         <v>0.513683334417758</v>
       </c>
       <c r="G4">
-        <v>0.8870007536572135</v>
+        <v>0.8870007536572134</v>
       </c>
       <c r="H4">
-        <v>0.8814848017607664</v>
+        <v>0.8814848017607666</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -481,13 +481,13 @@
         <v>0.6113085041320793</v>
       </c>
       <c r="C5">
-        <v>0.9177789048478578</v>
+        <v>0.9177789048478581</v>
       </c>
       <c r="D5">
-        <v>0.4375004993603231</v>
+        <v>0.437500499360323</v>
       </c>
       <c r="E5">
-        <v>0.8920694870009451</v>
+        <v>0.8920694870009449</v>
       </c>
       <c r="F5">
         <v>0.513683334417758</v>
@@ -496,7 +496,7 @@
         <v>0.8870007536572133</v>
       </c>
       <c r="H5">
-        <v>0.8814848017607664</v>
+        <v>0.8814848017607665</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -519,7 +519,7 @@
         <v>0.513683334417758</v>
       </c>
       <c r="G6">
-        <v>0.8870007536572135</v>
+        <v>0.8870007536572133</v>
       </c>
       <c r="H6">
         <v>0.8814848017607665</v>
@@ -545,7 +545,7 @@
         <v>0.6529644296755394</v>
       </c>
       <c r="G7">
-        <v>0.8206382981593482</v>
+        <v>0.8206382981593483</v>
       </c>
       <c r="H7">
         <v>0.8164752152755255</v>
@@ -568,10 +568,10 @@
         <v>0.8249103751294619</v>
       </c>
       <c r="F8">
-        <v>0.6529644296755395</v>
+        <v>0.6529644296755394</v>
       </c>
       <c r="G8">
-        <v>0.8206382981593482</v>
+        <v>0.8206382981593483</v>
       </c>
       <c r="H8">
         <v>0.8164752152755256</v>
@@ -585,7 +585,7 @@
         <v>0.7298541400439389</v>
       </c>
       <c r="C9">
-        <v>0.7376280029799814</v>
+        <v>0.7376280029799817</v>
       </c>
       <c r="D9">
         <v>0.7299012595514014</v>
@@ -600,7 +600,7 @@
         <v>0.7187031044892238</v>
       </c>
       <c r="H9">
-        <v>0.7160609003331189</v>
+        <v>0.7160609003331188</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7146952457503676</v>
+        <v>0.7146952457503675</v>
       </c>
       <c r="C10">
         <v>0.845061158400053</v>
@@ -617,7 +617,7 @@
         <v>0.6791502005582215</v>
       </c>
       <c r="E10">
-        <v>0.8249103751294616</v>
+        <v>0.8249103751294619</v>
       </c>
       <c r="F10">
         <v>0.6529644296755394</v>
@@ -643,13 +643,13 @@
         <v>0.6791502005582215</v>
       </c>
       <c r="E11">
-        <v>0.8249103751294617</v>
+        <v>0.8249103751294619</v>
       </c>
       <c r="F11">
         <v>0.6529644296755394</v>
       </c>
       <c r="G11">
-        <v>0.8206382981593482</v>
+        <v>0.8206382981593483</v>
       </c>
       <c r="H11">
         <v>0.8164752152755256</v>
@@ -663,22 +663,22 @@
         <v>0.6219008249710934</v>
       </c>
       <c r="C12">
-        <v>0.9031711616252324</v>
+        <v>0.9031711616252325</v>
       </c>
       <c r="D12">
         <v>0.4806545650370546</v>
       </c>
       <c r="E12">
-        <v>0.8781674546026204</v>
+        <v>0.8781674546026202</v>
       </c>
       <c r="F12">
         <v>0.5387437898893689</v>
       </c>
       <c r="G12">
-        <v>0.8734244489345285</v>
+        <v>0.8734244489345283</v>
       </c>
       <c r="H12">
-        <v>0.8681808967953211</v>
+        <v>0.8681808967953213</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,10 +686,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.6811601416780571</v>
+        <v>0.6811601416780569</v>
       </c>
       <c r="C13">
-        <v>0.9656026623575525</v>
+        <v>0.9656026623575524</v>
       </c>
       <c r="D13">
         <v>0.6306784763381318</v>
@@ -701,10 +701,10 @@
         <v>0.620736587068335</v>
       </c>
       <c r="G13">
-        <v>0.9349881729693846</v>
+        <v>0.9349881729693845</v>
       </c>
       <c r="H13">
-        <v>0.928846333391643</v>
+        <v>0.9288463333916428</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -715,19 +715,19 @@
         <v>0.6219008249710934</v>
       </c>
       <c r="C14">
-        <v>0.9031711616252323</v>
+        <v>0.9031711616252325</v>
       </c>
       <c r="D14">
-        <v>0.4806545650370547</v>
+        <v>0.4806545650370546</v>
       </c>
       <c r="E14">
-        <v>0.8781674546026204</v>
+        <v>0.8781674546026202</v>
       </c>
       <c r="F14">
         <v>0.5387437898893688</v>
       </c>
       <c r="G14">
-        <v>0.8734244489345284</v>
+        <v>0.8734244489345283</v>
       </c>
       <c r="H14">
         <v>0.8681808967953213</v>
@@ -747,16 +747,16 @@
         <v>0.6791502005582215</v>
       </c>
       <c r="E15">
-        <v>0.8249103751294617</v>
+        <v>0.8249103751294619</v>
       </c>
       <c r="F15">
         <v>0.6529644296755394</v>
       </c>
       <c r="G15">
-        <v>0.8206382981593483</v>
+        <v>0.8206382981593484</v>
       </c>
       <c r="H15">
-        <v>0.8164752152755256</v>
+        <v>0.8164752152755255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -770,7 +770,7 @@
         <v>0.7759215796969637</v>
       </c>
       <c r="D16">
-        <v>0.5412925457034896</v>
+        <v>0.5412925457034895</v>
       </c>
       <c r="E16">
         <v>0.7587839159844888</v>
@@ -779,10 +779,10 @@
         <v>0.6108447296320033</v>
       </c>
       <c r="G16">
-        <v>0.7535973688962369</v>
+        <v>0.7535973688962367</v>
       </c>
       <c r="H16">
-        <v>0.7511953001957833</v>
+        <v>0.7511953001957832</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -796,16 +796,16 @@
         <v>0.9031711616252325</v>
       </c>
       <c r="D17">
-        <v>0.4806545650370547</v>
+        <v>0.4806545650370546</v>
       </c>
       <c r="E17">
-        <v>0.8781674546026204</v>
+        <v>0.8781674546026202</v>
       </c>
       <c r="F17">
         <v>0.5387437898893688</v>
       </c>
       <c r="G17">
-        <v>0.8734244489345286</v>
+        <v>0.8734244489345285</v>
       </c>
       <c r="H17">
         <v>0.8681808967953213</v>
@@ -816,10 +816,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6811601416780571</v>
+        <v>0.6811601416780569</v>
       </c>
       <c r="C18">
-        <v>0.9656026623575527</v>
+        <v>0.9656026623575524</v>
       </c>
       <c r="D18">
         <v>0.6306784763381317</v>
@@ -831,10 +831,10 @@
         <v>0.6207365870683349</v>
       </c>
       <c r="G18">
-        <v>0.9349881729693846</v>
+        <v>0.9349881729693845</v>
       </c>
       <c r="H18">
-        <v>0.928846333391643</v>
+        <v>0.9288463333916429</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -860,7 +860,7 @@
         <v>0.7535973688962367</v>
       </c>
       <c r="H19">
-        <v>0.7511953001957833</v>
+        <v>0.7511953001957831</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -883,10 +883,10 @@
         <v>0.6108447296320033</v>
       </c>
       <c r="G20">
-        <v>0.7535973688962369</v>
+        <v>0.7535973688962367</v>
       </c>
       <c r="H20">
-        <v>0.7511953001957833</v>
+        <v>0.7511953001957831</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -900,16 +900,16 @@
         <v>0.7759215796969638</v>
       </c>
       <c r="D21">
-        <v>0.5412925457034896</v>
+        <v>0.5412925457034895</v>
       </c>
       <c r="E21">
-        <v>0.7587839159844887</v>
+        <v>0.7587839159844888</v>
       </c>
       <c r="F21">
         <v>0.6108447296320033</v>
       </c>
       <c r="G21">
-        <v>0.7535973688962369</v>
+        <v>0.7535973688962367</v>
       </c>
       <c r="H21">
         <v>0.7511953001957832</v>
@@ -935,7 +935,7 @@
         <v>0.5072319678082651</v>
       </c>
       <c r="G22">
-        <v>0.9986505292038016</v>
+        <v>0.9986505292038017</v>
       </c>
       <c r="H22">
         <v>0.9950750409513044</v>
@@ -949,22 +949,22 @@
         <v>0.6925905552347407</v>
       </c>
       <c r="C23">
-        <v>0.9000369486989319</v>
+        <v>0.9000369486989317</v>
       </c>
       <c r="D23">
-        <v>0.5055372562741492</v>
+        <v>0.5055372562741491</v>
       </c>
       <c r="E23">
         <v>0.8761831439160546</v>
       </c>
       <c r="F23">
-        <v>0.5804057579587106</v>
+        <v>0.5804057579587105</v>
       </c>
       <c r="G23">
-        <v>0.8712428905033228</v>
+        <v>0.8712428905033227</v>
       </c>
       <c r="H23">
-        <v>0.8664745388855953</v>
+        <v>0.8664745388855952</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -975,7 +975,7 @@
         <v>0.4919379929255898</v>
       </c>
       <c r="C24">
-        <v>0.7883237852583876</v>
+        <v>0.7883237852583878</v>
       </c>
       <c r="D24">
         <v>0.3572401108653931</v>
@@ -984,7 +984,7 @@
         <v>0.7667594830293722</v>
       </c>
       <c r="F24">
-        <v>0.4074054610414095</v>
+        <v>0.4074054610414096</v>
       </c>
       <c r="G24">
         <v>0.7622772048076156</v>
@@ -1007,10 +1007,10 @@
         <v>0.3572401108653931</v>
       </c>
       <c r="E25">
-        <v>0.7667594830293724</v>
+        <v>0.7667594830293722</v>
       </c>
       <c r="F25">
-        <v>0.4074054610414095</v>
+        <v>0.4074054610414096</v>
       </c>
       <c r="G25">
         <v>0.7622772048076157</v>
@@ -1030,10 +1030,10 @@
         <v>0.7883237852583876</v>
       </c>
       <c r="D26">
-        <v>0.3572401108653931</v>
+        <v>0.357240110865393</v>
       </c>
       <c r="E26">
-        <v>0.7667594830293724</v>
+        <v>0.7667594830293722</v>
       </c>
       <c r="F26">
         <v>0.4074054610414095</v>
@@ -1062,7 +1062,7 @@
         <v>0.9072532578547872</v>
       </c>
       <c r="F27">
-        <v>0.5590570792150914</v>
+        <v>0.5590570792150915</v>
       </c>
       <c r="G27">
         <v>0.8998263115571961</v>
@@ -1088,7 +1088,7 @@
         <v>0.9072532578547872</v>
       </c>
       <c r="F28">
-        <v>0.5590570792150914</v>
+        <v>0.5590570792150915</v>
       </c>
       <c r="G28">
         <v>0.8998263115571961</v>
@@ -1157,10 +1157,10 @@
         <v>0.7159775924551365</v>
       </c>
       <c r="C31">
-        <v>0.843560302613681</v>
+        <v>0.8435603026136812</v>
       </c>
       <c r="D31">
-        <v>0.9114581530130841</v>
+        <v>0.911458153013084</v>
       </c>
       <c r="E31">
         <v>0.8303596890692092</v>
@@ -1169,7 +1169,7 @@
         <v>0.8416216226974815</v>
       </c>
       <c r="G31">
-        <v>0.8299099542518847</v>
+        <v>0.8299099542518846</v>
       </c>
       <c r="H31">
         <v>0.8283949921277109</v>
@@ -1186,16 +1186,16 @@
         <v>0.9258562675757489</v>
       </c>
       <c r="D32">
-        <v>0.8478542089490972</v>
+        <v>0.8478542089490971</v>
       </c>
       <c r="E32">
-        <v>0.9088814855990247</v>
+        <v>0.9088814855990246</v>
       </c>
       <c r="F32">
-        <v>0.7983191071929628</v>
+        <v>0.798319107192963</v>
       </c>
       <c r="G32">
-        <v>0.9064656632284895</v>
+        <v>0.9064656632284893</v>
       </c>
       <c r="H32">
         <v>0.9030831867895444</v>
@@ -1221,7 +1221,7 @@
         <v>0.8416216226974813</v>
       </c>
       <c r="G33">
-        <v>0.8299099542518849</v>
+        <v>0.8299099542518847</v>
       </c>
       <c r="H33">
         <v>0.8283949921277109</v>
@@ -1241,10 +1241,10 @@
         <v>0.7330295899248436</v>
       </c>
       <c r="E34">
-        <v>1.030995497254175</v>
+        <v>1.030995497254174</v>
       </c>
       <c r="F34">
-        <v>0.780416211257499</v>
+        <v>0.7804162112574989</v>
       </c>
       <c r="G34">
         <v>1.024924258357607</v>
@@ -1270,7 +1270,7 @@
         <v>1.025376982292885</v>
       </c>
       <c r="F35">
-        <v>0.8110338517766937</v>
+        <v>0.8110338517766938</v>
       </c>
       <c r="G35">
         <v>1.018462393190807</v>
@@ -1296,10 +1296,10 @@
         <v>0.871825395939846</v>
       </c>
       <c r="F36">
-        <v>0.7559735177276655</v>
+        <v>0.7559735177276654</v>
       </c>
       <c r="G36">
-        <v>0.8724031310026529</v>
+        <v>0.872403131002653</v>
       </c>
       <c r="H36">
         <v>0.8682822168936126</v>
@@ -1310,25 +1310,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.7586574634698566</v>
+        <v>0.7586574634698565</v>
       </c>
       <c r="C37">
         <v>0.8313930562177926</v>
       </c>
       <c r="D37">
-        <v>0.916453049732192</v>
+        <v>0.9164530497321921</v>
       </c>
       <c r="E37">
-        <v>0.8208724753204293</v>
+        <v>0.8208724753204292</v>
       </c>
       <c r="F37">
         <v>0.8537882415416523</v>
       </c>
       <c r="G37">
-        <v>0.8204650641758268</v>
+        <v>0.8204650641758269</v>
       </c>
       <c r="H37">
-        <v>0.8196295355993107</v>
+        <v>0.8196295355993106</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1351,7 +1351,7 @@
         <v>0.8537882415416524</v>
       </c>
       <c r="G38">
-        <v>0.8204650641758267</v>
+        <v>0.8204650641758269</v>
       </c>
       <c r="H38">
         <v>0.8196295355993107</v>
@@ -1371,16 +1371,16 @@
         <v>0.8606854973405813</v>
       </c>
       <c r="E39">
-        <v>0.9385373563127695</v>
+        <v>0.9385373563127696</v>
       </c>
       <c r="F39">
-        <v>0.8566802789714666</v>
+        <v>0.8566802789714664</v>
       </c>
       <c r="G39">
-        <v>0.9311412336547479</v>
+        <v>0.9311412336547477</v>
       </c>
       <c r="H39">
-        <v>0.9309477530339154</v>
+        <v>0.9309477530339153</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1426,7 +1426,7 @@
         <v>1.025376982292885</v>
       </c>
       <c r="F41">
-        <v>0.8110338517766937</v>
+        <v>0.8110338517766938</v>
       </c>
       <c r="G41">
         <v>1.018462393190807</v>
@@ -1443,10 +1443,10 @@
         <v>0.6818309853166951</v>
       </c>
       <c r="C42">
-        <v>0.8933019822280538</v>
+        <v>0.8933019822280537</v>
       </c>
       <c r="D42">
-        <v>0.822733659587389</v>
+        <v>0.8227336595873889</v>
       </c>
       <c r="E42">
         <v>0.8763289469536543</v>
@@ -1455,10 +1455,10 @@
         <v>0.7688297859705541</v>
       </c>
       <c r="G42">
-        <v>0.8754149823697814</v>
+        <v>0.8754149823697813</v>
       </c>
       <c r="H42">
-        <v>0.8713641231259753</v>
+        <v>0.8713641231259752</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1475,7 +1475,7 @@
         <v>0.7631560931659062</v>
       </c>
       <c r="E43">
-        <v>0.966147414890606</v>
+        <v>0.9661474148906061</v>
       </c>
       <c r="F43">
         <v>0.7264680645659642</v>
@@ -1484,7 +1484,7 @@
         <v>0.9650284321763237</v>
       </c>
       <c r="H43">
-        <v>0.9586864899794031</v>
+        <v>0.958686489979403</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1504,13 +1504,13 @@
         <v>0.9874994283546505</v>
       </c>
       <c r="F44">
-        <v>0.5863422560010912</v>
+        <v>0.586342256001091</v>
       </c>
       <c r="G44">
         <v>0.9831990843876265</v>
       </c>
       <c r="H44">
-        <v>0.9772829019047976</v>
+        <v>0.9772829019047975</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1518,13 +1518,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.6186631521067224</v>
+        <v>0.6186631521067223</v>
       </c>
       <c r="C45">
         <v>0.8662078413580788</v>
       </c>
       <c r="D45">
-        <v>0.7658360821524052</v>
+        <v>0.7658360821524053</v>
       </c>
       <c r="E45">
         <v>0.8483829985580204</v>
@@ -1544,7 +1544,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.7424195475299902</v>
+        <v>0.7424195475299901</v>
       </c>
       <c r="C46">
         <v>0.9155268130052735</v>
@@ -1553,7 +1553,7 @@
         <v>0.8536139749208409</v>
       </c>
       <c r="E46">
-        <v>0.9005098573628429</v>
+        <v>0.9005098573628428</v>
       </c>
       <c r="F46">
         <v>0.8112325381004899</v>
@@ -1562,7 +1562,7 @@
         <v>0.8976658557640412</v>
       </c>
       <c r="H46">
-        <v>0.8948430451712297</v>
+        <v>0.8948430451712296</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1579,10 +1579,10 @@
         <v>0.6836680682665456</v>
       </c>
       <c r="E47">
-        <v>0.974713877808512</v>
+        <v>0.9747138778085119</v>
       </c>
       <c r="F47">
-        <v>0.6667130618788636</v>
+        <v>0.6667130618788634</v>
       </c>
       <c r="G47">
         <v>0.9730741219428674</v>
@@ -1596,7 +1596,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.5861543442496582</v>
+        <v>0.5861543442496581</v>
       </c>
       <c r="C48">
         <v>0.9671953792475881</v>
@@ -1622,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.7814688683658427</v>
+        <v>0.7814688683658426</v>
       </c>
       <c r="C49">
-        <v>0.7192204613277146</v>
+        <v>0.7192204613277144</v>
       </c>
       <c r="D49">
-        <v>0.7682005185328262</v>
+        <v>0.7682005185328261</v>
       </c>
       <c r="E49">
-        <v>0.7059138068288306</v>
+        <v>0.7059138068288308</v>
       </c>
       <c r="F49">
         <v>0.7244115876091015</v>
       </c>
       <c r="G49">
-        <v>0.7024376855034751</v>
+        <v>0.7024376855034752</v>
       </c>
       <c r="H49">
         <v>0.7002603044937794</v>
@@ -1663,7 +1663,7 @@
         <v>0.7672194111070516</v>
       </c>
       <c r="G50">
-        <v>0.7901397720236254</v>
+        <v>0.7901397720236255</v>
       </c>
       <c r="H50">
         <v>0.7859266393941716</v>
@@ -1677,13 +1677,13 @@
         <v>0.6174580723598365</v>
       </c>
       <c r="C51">
-        <v>0.7562940347818741</v>
+        <v>0.7562940347818742</v>
       </c>
       <c r="D51">
         <v>0.6352309044978393</v>
       </c>
       <c r="E51">
-        <v>0.7374595343328133</v>
+        <v>0.7374595343328134</v>
       </c>
       <c r="F51">
         <v>0.5931674940284208</v>
@@ -1712,13 +1712,13 @@
         <v>0.7782528338583303</v>
       </c>
       <c r="F52">
-        <v>0.5462140007552516</v>
+        <v>0.5462140007552514</v>
       </c>
       <c r="G52">
         <v>0.7740112390809378</v>
       </c>
       <c r="H52">
-        <v>0.7692731771912602</v>
+        <v>0.76927317719126</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1738,7 +1738,7 @@
         <v>0.6493777385398465</v>
       </c>
       <c r="F53">
-        <v>0.6736764002491603</v>
+        <v>0.6736764002491605</v>
       </c>
       <c r="G53">
         <v>0.6474532510215472</v>
@@ -1767,10 +1767,10 @@
         <v>0.6228102276697378</v>
       </c>
       <c r="G54">
-        <v>0.6275881133238443</v>
+        <v>0.6275881133238445</v>
       </c>
       <c r="H54">
-        <v>0.6249448184092162</v>
+        <v>0.6249448184092161</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>0.7901397720236254</v>
       </c>
       <c r="H55">
-        <v>0.7859266393941716</v>
+        <v>0.7859266393941715</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1810,7 +1810,7 @@
         <v>0.8852224481801518</v>
       </c>
       <c r="D56">
-        <v>0.6381543991861198</v>
+        <v>0.6381543991861197</v>
       </c>
       <c r="E56">
         <v>0.8638273158329606</v>
@@ -1819,10 +1819,10 @@
         <v>0.6999630378018775</v>
       </c>
       <c r="G56">
-        <v>0.8574607946722108</v>
+        <v>0.857460794672211</v>
       </c>
       <c r="H56">
-        <v>0.854037320600888</v>
+        <v>0.8540373206008879</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1842,7 +1842,7 @@
         <v>0.7754980566054482</v>
       </c>
       <c r="F57">
-        <v>0.5410690067859686</v>
+        <v>0.5410690067859687</v>
       </c>
       <c r="G57">
         <v>0.770760097477299</v>
@@ -1859,7 +1859,7 @@
         <v>0.9129195881485486</v>
       </c>
       <c r="C58">
-        <v>0.897489688129931</v>
+        <v>0.8974896881299309</v>
       </c>
       <c r="D58">
         <v>0.542125861271208</v>
@@ -1868,7 +1868,7 @@
         <v>0.8764206183854233</v>
       </c>
       <c r="F58">
-        <v>0.6567430507440697</v>
+        <v>0.6567430507440698</v>
       </c>
       <c r="G58">
         <v>0.868593957185157</v>
@@ -1882,7 +1882,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.9129195881485488</v>
+        <v>0.9129195881485485</v>
       </c>
       <c r="C59">
         <v>0.897489688129931</v>
@@ -1894,13 +1894,13 @@
         <v>0.8764206183854234</v>
       </c>
       <c r="F59">
-        <v>0.6567430507440697</v>
+        <v>0.6567430507440698</v>
       </c>
       <c r="G59">
         <v>0.868593957185157</v>
       </c>
       <c r="H59">
-        <v>0.8654808458872708</v>
+        <v>0.8654808458872709</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1914,13 +1914,13 @@
         <v>0.7548651402726241</v>
       </c>
       <c r="D60">
-        <v>0.3615368039744546</v>
+        <v>0.3615368039744545</v>
       </c>
       <c r="E60">
         <v>0.735779013969488</v>
       </c>
       <c r="F60">
-        <v>0.4654238246015606</v>
+        <v>0.4654238246015607</v>
       </c>
       <c r="G60">
         <v>0.7301549346452951</v>
@@ -1943,13 +1943,13 @@
         <v>0.3615368039744546</v>
       </c>
       <c r="E61">
-        <v>0.7357790139694877</v>
+        <v>0.7357790139694879</v>
       </c>
       <c r="F61">
-        <v>0.4654238246015606</v>
+        <v>0.4654238246015607</v>
       </c>
       <c r="G61">
-        <v>0.7301549346452952</v>
+        <v>0.7301549346452954</v>
       </c>
       <c r="H61">
         <v>0.7263599587984341</v>
@@ -1966,19 +1966,19 @@
         <v>0.7072412381265396</v>
       </c>
       <c r="D62">
-        <v>0.2341747557639113</v>
+        <v>0.2341747557639112</v>
       </c>
       <c r="E62">
-        <v>0.6871077596231692</v>
+        <v>0.6871077596231694</v>
       </c>
       <c r="F62">
-        <v>0.2708024213887155</v>
+        <v>0.2708024213887156</v>
       </c>
       <c r="G62">
         <v>0.6837397428121524</v>
       </c>
       <c r="H62">
-        <v>0.6791160517935203</v>
+        <v>0.6791160517935204</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1989,16 +1989,16 @@
         <v>0.3201798806116897</v>
       </c>
       <c r="C63">
-        <v>0.7072412381265396</v>
+        <v>0.7072412381265395</v>
       </c>
       <c r="D63">
         <v>0.2341747557639112</v>
       </c>
       <c r="E63">
-        <v>0.6871077596231692</v>
+        <v>0.6871077596231694</v>
       </c>
       <c r="F63">
-        <v>0.2708024213887155</v>
+        <v>0.2708024213887156</v>
       </c>
       <c r="G63">
         <v>0.6837397428121524</v>
@@ -2021,7 +2021,7 @@
         <v>0.1876098931281406</v>
       </c>
       <c r="E64">
-        <v>0.6556307102035395</v>
+        <v>0.6556307102035396</v>
       </c>
       <c r="F64">
         <v>0.1972745112657724</v>
@@ -2047,7 +2047,7 @@
         <v>0.1876098931281406</v>
       </c>
       <c r="E65">
-        <v>0.6556307102035395</v>
+        <v>0.6556307102035396</v>
       </c>
       <c r="F65">
         <v>0.1972745112657724</v>
@@ -2056,7 +2056,7 @@
         <v>0.6525019510647927</v>
       </c>
       <c r="H65">
-        <v>0.647831975035762</v>
+        <v>0.6478319750357618</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2076,7 +2076,7 @@
         <v>0.8715223670678702</v>
       </c>
       <c r="F66">
-        <v>0.7057978958032961</v>
+        <v>0.705797895803296</v>
       </c>
       <c r="G66">
         <v>0.8711699640080313</v>
@@ -2093,22 +2093,22 @@
         <v>0.7707099443511992</v>
       </c>
       <c r="C67">
-        <v>0.9956893001380466</v>
+        <v>0.9956893001380465</v>
       </c>
       <c r="D67">
         <v>0.5675799264787071</v>
       </c>
       <c r="E67">
-        <v>0.9673658730550837</v>
+        <v>0.9673658730550836</v>
       </c>
       <c r="F67">
         <v>0.6635115959465698</v>
       </c>
       <c r="G67">
-        <v>0.9662624344024615</v>
+        <v>0.9662624344024613</v>
       </c>
       <c r="H67">
-        <v>0.9601743181911238</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2125,7 +2125,7 @@
         <v>0.6125175191312847</v>
       </c>
       <c r="E68">
-        <v>0.8715223670678702</v>
+        <v>0.87152236706787</v>
       </c>
       <c r="F68">
         <v>0.705797895803296</v>
@@ -2145,22 +2145,22 @@
         <v>0.7707099443511993</v>
       </c>
       <c r="C69">
-        <v>0.9956893001380465</v>
+        <v>0.9956893001380464</v>
       </c>
       <c r="D69">
-        <v>0.5675799264787071</v>
+        <v>0.5675799264787073</v>
       </c>
       <c r="E69">
-        <v>0.9673658730550837</v>
+        <v>0.9673658730550835</v>
       </c>
       <c r="F69">
-        <v>0.6635115959465699</v>
+        <v>0.6635115959465698</v>
       </c>
       <c r="G69">
-        <v>0.9662624344024616</v>
+        <v>0.9662624344024613</v>
       </c>
       <c r="H69">
-        <v>0.9601743181911236</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2177,16 +2177,16 @@
         <v>0.5675799264787071</v>
       </c>
       <c r="E70">
-        <v>0.9673658730550837</v>
+        <v>0.9673658730550836</v>
       </c>
       <c r="F70">
         <v>0.6635115959465699</v>
       </c>
       <c r="G70">
-        <v>0.9662624344024615</v>
+        <v>0.9662624344024613</v>
       </c>
       <c r="H70">
-        <v>0.9601743181911238</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2194,13 +2194,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.7828800134135524</v>
+        <v>0.7828800134135527</v>
       </c>
       <c r="C71">
         <v>1.035325234347081</v>
       </c>
       <c r="D71">
-        <v>0.5880886718360889</v>
+        <v>0.588088671836089</v>
       </c>
       <c r="E71">
         <v>1.006363757724464</v>
@@ -2226,16 +2226,16 @@
         <v>1.008493964579074</v>
       </c>
       <c r="D72">
-        <v>0.5195768998984579</v>
+        <v>0.519576899898458</v>
       </c>
       <c r="E72">
-        <v>0.9796786565898493</v>
+        <v>0.9796786565898491</v>
       </c>
       <c r="F72">
         <v>0.6237308117000442</v>
       </c>
       <c r="G72">
-        <v>0.9776571194259568</v>
+        <v>0.9776571194259565</v>
       </c>
       <c r="H72">
         <v>0.9713614694346836</v>
@@ -2255,13 +2255,13 @@
         <v>0.519576899898458</v>
       </c>
       <c r="E73">
-        <v>0.9796786565898493</v>
+        <v>0.9796786565898491</v>
       </c>
       <c r="F73">
-        <v>0.6237308117000442</v>
+        <v>0.623730811700044</v>
       </c>
       <c r="G73">
-        <v>0.9776571194259567</v>
+        <v>0.9776571194259565</v>
       </c>
       <c r="H73">
         <v>0.9713614694346836</v>
@@ -2278,16 +2278,16 @@
         <v>1.008493964579074</v>
       </c>
       <c r="D74">
-        <v>0.5195768998984579</v>
+        <v>0.519576899898458</v>
       </c>
       <c r="E74">
-        <v>0.9796786565898493</v>
+        <v>0.9796786565898491</v>
       </c>
       <c r="F74">
-        <v>0.6237308117000442</v>
+        <v>0.623730811700044</v>
       </c>
       <c r="G74">
-        <v>0.9776571194259568</v>
+        <v>0.9776571194259565</v>
       </c>
       <c r="H74">
         <v>0.9713614694346836</v>
@@ -2307,16 +2307,16 @@
         <v>0.3741858806014546</v>
       </c>
       <c r="E75">
-        <v>0.8814004484713144</v>
+        <v>0.8814004484713142</v>
       </c>
       <c r="F75">
-        <v>0.5080040544266964</v>
+        <v>0.5080040544266965</v>
       </c>
       <c r="G75">
         <v>0.879125146817891</v>
       </c>
       <c r="H75">
-        <v>0.8737229871481272</v>
+        <v>0.8737229871481271</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2330,7 +2330,7 @@
         <v>0.9956893001380466</v>
       </c>
       <c r="D76">
-        <v>0.5675799264787071</v>
+        <v>0.5675799264787073</v>
       </c>
       <c r="E76">
         <v>0.9673658730550837</v>
@@ -2342,7 +2342,7 @@
         <v>0.9662624344024615</v>
       </c>
       <c r="H76">
-        <v>0.9601743181911238</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2350,13 +2350,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
       <c r="C77">
         <v>0.9945548979600238</v>
       </c>
       <c r="D77">
-        <v>0.5033865742750963</v>
+        <v>0.5033865742750964</v>
       </c>
       <c r="E77">
         <v>0.9664542562177261</v>
@@ -2365,7 +2365,7 @@
         <v>0.6059719782358408</v>
       </c>
       <c r="G77">
-        <v>0.9637526180837622</v>
+        <v>0.9637526180837621</v>
       </c>
       <c r="H77">
         <v>0.9575184562376406</v>
@@ -2376,19 +2376,19 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
       <c r="C78">
         <v>0.9945548979600238</v>
       </c>
       <c r="D78">
-        <v>0.5033865742750963</v>
+        <v>0.5033865742750964</v>
       </c>
       <c r="E78">
-        <v>0.966454256217726</v>
+        <v>0.9664542562177261</v>
       </c>
       <c r="F78">
-        <v>0.6059719782358407</v>
+        <v>0.6059719782358408</v>
       </c>
       <c r="G78">
         <v>0.9637526180837622</v>
@@ -2402,7 +2402,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
       <c r="C79">
         <v>0.9945548979600238</v>
@@ -2411,10 +2411,10 @@
         <v>0.5033865742750964</v>
       </c>
       <c r="E79">
-        <v>0.966454256217726</v>
+        <v>0.9664542562177261</v>
       </c>
       <c r="F79">
-        <v>0.6059719782358407</v>
+        <v>0.6059719782358408</v>
       </c>
       <c r="G79">
         <v>0.9637526180837622</v>
@@ -2428,22 +2428,22 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
       <c r="C80">
         <v>0.9945548979600238</v>
       </c>
       <c r="D80">
-        <v>0.5033865742750963</v>
+        <v>0.5033865742750964</v>
       </c>
       <c r="E80">
-        <v>0.966454256217726</v>
+        <v>0.9664542562177261</v>
       </c>
       <c r="F80">
         <v>0.6059719782358408</v>
       </c>
       <c r="G80">
-        <v>0.9637526180837622</v>
+        <v>0.9637526180837621</v>
       </c>
       <c r="H80">
         <v>0.9575184562376406</v>
@@ -2460,7 +2460,7 @@
         <v>1.019587441563529</v>
       </c>
       <c r="D81">
-        <v>0.6304169197898617</v>
+        <v>0.6304169197898618</v>
       </c>
       <c r="E81">
         <v>0.9931486504238493</v>
@@ -2469,7 +2469,7 @@
         <v>0.7349622985367303</v>
       </c>
       <c r="G81">
-        <v>0.9905363711042668</v>
+        <v>0.9905363711042666</v>
       </c>
       <c r="H81">
         <v>0.9852753123030359</v>
@@ -2495,7 +2495,7 @@
         <v>0.7349622985367303</v>
       </c>
       <c r="G82">
-        <v>0.9905363711042668</v>
+        <v>0.9905363711042666</v>
       </c>
       <c r="H82">
         <v>0.9852753123030359</v>
@@ -2506,13 +2506,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.6064352938313579</v>
+        <v>0.6064352938313574</v>
       </c>
       <c r="C83">
-        <v>0.9320452627871094</v>
+        <v>0.9320452627871093</v>
       </c>
       <c r="D83">
-        <v>0.4014539591697482</v>
+        <v>0.4014539591697483</v>
       </c>
       <c r="E83">
         <v>0.9052248453370654</v>
@@ -2532,13 +2532,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.6064352938313577</v>
+        <v>0.6064352938313574</v>
       </c>
       <c r="C84">
-        <v>0.9320452627871092</v>
+        <v>0.9320452627871091</v>
       </c>
       <c r="D84">
-        <v>0.4014539591697482</v>
+        <v>0.4014539591697483</v>
       </c>
       <c r="E84">
         <v>0.9052248453370654</v>
@@ -2547,10 +2547,10 @@
         <v>0.4652794097150676</v>
       </c>
       <c r="G84">
-        <v>0.9000539178104614</v>
+        <v>0.9000539178104615</v>
       </c>
       <c r="H84">
-        <v>0.8954179525804176</v>
+        <v>0.8954179525804175</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2570,13 +2570,13 @@
         <v>0.9917108465938204</v>
       </c>
       <c r="F85">
-        <v>0.5400683437025028</v>
+        <v>0.5400683437025027</v>
       </c>
       <c r="G85">
         <v>0.9818740058067775</v>
       </c>
       <c r="H85">
-        <v>0.9806511720108639</v>
+        <v>0.9806511720108638</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2584,7 +2584,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.6150643655826664</v>
+        <v>0.6150643655826663</v>
       </c>
       <c r="C86">
         <v>1.017231055382738</v>
@@ -2602,7 +2602,7 @@
         <v>0.9818740058067775</v>
       </c>
       <c r="H86">
-        <v>0.980651172010864</v>
+        <v>0.9806511720108639</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2622,13 +2622,13 @@
         <v>1.008439328479979</v>
       </c>
       <c r="F87">
-        <v>0.5545195134349676</v>
+        <v>0.5545195134349675</v>
       </c>
       <c r="G87">
-        <v>0.9989523734548926</v>
+        <v>0.9989523734548925</v>
       </c>
       <c r="H87">
-        <v>0.9970299975737019</v>
+        <v>0.9970299975737017</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2648,7 +2648,7 @@
         <v>1.008439328479979</v>
       </c>
       <c r="F88">
-        <v>0.5545195134349676</v>
+        <v>0.5545195134349675</v>
       </c>
       <c r="G88">
         <v>0.9989523734548925</v>
@@ -2674,10 +2674,10 @@
         <v>1.008439328479979</v>
       </c>
       <c r="F89">
-        <v>0.5545195134349676</v>
+        <v>0.5545195134349675</v>
       </c>
       <c r="G89">
-        <v>0.9989523734548927</v>
+        <v>0.9989523734548926</v>
       </c>
       <c r="H89">
         <v>0.9970299975737019</v>
@@ -2697,7 +2697,7 @@
         <v>1.774049897429639</v>
       </c>
       <c r="E90">
-        <v>0.8671108534690386</v>
+        <v>0.8671108534690384</v>
       </c>
       <c r="F90">
         <v>1.593055941987639</v>
@@ -2717,7 +2717,7 @@
         <v>1.296756388749614</v>
       </c>
       <c r="C91">
-        <v>0.7171141525481364</v>
+        <v>0.7171141525481363</v>
       </c>
       <c r="D91">
         <v>1.774396939167651</v>
@@ -2749,7 +2749,7 @@
         <v>1.775879581903235</v>
       </c>
       <c r="E92">
-        <v>0.8124761516653251</v>
+        <v>0.8124761516653249</v>
       </c>
       <c r="F92">
         <v>1.591292987913244</v>
@@ -2775,16 +2775,16 @@
         <v>1.771366870115365</v>
       </c>
       <c r="E93">
-        <v>0.9472265233356</v>
+        <v>0.9472265233355999</v>
       </c>
       <c r="F93">
         <v>1.595641116646808</v>
       </c>
       <c r="G93">
-        <v>0.9745265417065708</v>
+        <v>0.9745265417065706</v>
       </c>
       <c r="H93">
-        <v>0.9740147409319231</v>
+        <v>0.974014740931923</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2795,7 +2795,7 @@
         <v>1.361242855016893</v>
       </c>
       <c r="C94">
-        <v>0.3946925908602328</v>
+        <v>0.3946925908602327</v>
       </c>
       <c r="D94">
         <v>1.617315583815331</v>
@@ -2807,10 +2807,10 @@
         <v>1.458013260846523</v>
       </c>
       <c r="G94">
-        <v>0.8039743963938829</v>
+        <v>0.8039743963938828</v>
       </c>
       <c r="H94">
-        <v>0.8173172235471919</v>
+        <v>0.8173172235471917</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2818,7 +2818,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.272856869302649</v>
+        <v>1.27285686930265</v>
       </c>
       <c r="C95">
         <v>0.9022811083060043</v>
@@ -2836,7 +2836,7 @@
         <v>0.9704490053588439</v>
       </c>
       <c r="H95">
-        <v>0.9702088533584936</v>
+        <v>0.9702088533584935</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2859,7 +2859,7 @@
         <v>1.591777512017857</v>
       </c>
       <c r="G96">
-        <v>0.907722402911794</v>
+        <v>0.9077224029117937</v>
       </c>
       <c r="H96">
         <v>0.9116611479751225</v>
@@ -2879,16 +2879,16 @@
         <v>1.771366870115365</v>
       </c>
       <c r="E97">
-        <v>0.9472265233356</v>
+        <v>0.9472265233355998</v>
       </c>
       <c r="F97">
         <v>1.595641116646808</v>
       </c>
       <c r="G97">
-        <v>0.9745265417065706</v>
+        <v>0.9745265417065707</v>
       </c>
       <c r="H97">
-        <v>0.9740147409319232</v>
+        <v>0.9740147409319231</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2905,16 +2905,16 @@
         <v>1.562935108385626</v>
       </c>
       <c r="E98">
-        <v>0.9465728879200905</v>
+        <v>0.9465728879200904</v>
       </c>
       <c r="F98">
         <v>1.431185071628348</v>
       </c>
       <c r="G98">
-        <v>0.959499266948968</v>
+        <v>0.9594992669489679</v>
       </c>
       <c r="H98">
-        <v>0.9608811221825406</v>
+        <v>0.9608811221825404</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2931,7 +2931,7 @@
         <v>1.56359150662047</v>
       </c>
       <c r="E99">
-        <v>0.9100705215663468</v>
+        <v>0.9100705215663467</v>
       </c>
       <c r="F99">
         <v>1.430144276493927</v>
@@ -2940,7 +2940,7 @@
         <v>0.9344112221876794</v>
       </c>
       <c r="H99">
-        <v>0.9375417647370828</v>
+        <v>0.9375417647370826</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2957,7 +2957,7 @@
         <v>1.549422877716358</v>
       </c>
       <c r="E100">
-        <v>0.9048518922398769</v>
+        <v>0.9048518922398768</v>
       </c>
       <c r="F100">
         <v>1.437755590463255</v>
@@ -2966,7 +2966,7 @@
         <v>0.9225922315917593</v>
       </c>
       <c r="H100">
-        <v>0.9295669243420566</v>
+        <v>0.9295669243420565</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -2974,7 +2974,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.278893289744995</v>
+        <v>1.278893289744996</v>
       </c>
       <c r="C101">
         <v>0.802697896972157</v>
@@ -3009,16 +3009,16 @@
         <v>1.548895139628795</v>
       </c>
       <c r="E102">
-        <v>0.9261255399411261</v>
+        <v>0.926125539941126</v>
       </c>
       <c r="F102">
         <v>1.438696833165541</v>
       </c>
       <c r="G102">
-        <v>0.9371272303224157</v>
+        <v>0.9371272303224156</v>
       </c>
       <c r="H102">
-        <v>0.9427430627743552</v>
+        <v>0.942743062774355</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3035,16 +3035,16 @@
         <v>1.358324897796899</v>
       </c>
       <c r="E103">
-        <v>0.9393295887665253</v>
+        <v>0.9393295887665252</v>
       </c>
       <c r="F103">
         <v>1.275995510636288</v>
       </c>
       <c r="G103">
-        <v>0.9413706116693011</v>
+        <v>0.9413706116693012</v>
       </c>
       <c r="H103">
-        <v>0.9462710463156929</v>
+        <v>0.9462710463156928</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3058,7 +3058,7 @@
         <v>0.9183523444336792</v>
       </c>
       <c r="D104">
-        <v>1.358324897796899</v>
+        <v>1.3583248977969</v>
       </c>
       <c r="E104">
         <v>0.9393295887665253</v>
@@ -3067,10 +3067,10 @@
         <v>1.275995510636288</v>
       </c>
       <c r="G104">
-        <v>0.9413706116693011</v>
+        <v>0.9413706116693012</v>
       </c>
       <c r="H104">
-        <v>0.9462710463156931</v>
+        <v>0.946271046315693</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3078,7 +3078,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.176927144993836</v>
+        <v>1.176927144993837</v>
       </c>
       <c r="C105">
         <v>1.004425631217101</v>
@@ -3171,7 +3171,7 @@
         <v>1.188458354013816</v>
       </c>
       <c r="G108">
-        <v>1.134036223986426</v>
+        <v>1.134036223986425</v>
       </c>
       <c r="H108">
         <v>1.129206569345848</v>
@@ -3223,7 +3223,7 @@
         <v>1.182405834085745</v>
       </c>
       <c r="G110">
-        <v>0.9852958902130047</v>
+        <v>0.9852958902130046</v>
       </c>
       <c r="H110">
         <v>0.9900370721210732</v>
@@ -3249,10 +3249,10 @@
         <v>1.18154848543536</v>
       </c>
       <c r="G111">
-        <v>0.9588089988269243</v>
+        <v>0.9588089988269242</v>
       </c>
       <c r="H111">
-        <v>0.9662929084521007</v>
+        <v>0.9662929084521006</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3260,10 +3260,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.117401352701571</v>
+        <v>1.117401352701572</v>
       </c>
       <c r="C112">
-        <v>0.9273670538777622</v>
+        <v>0.9273670538777623</v>
       </c>
       <c r="D112">
         <v>1.320344421081611</v>
@@ -3295,7 +3295,7 @@
         <v>1.12524993047841</v>
       </c>
       <c r="E113">
-        <v>0.9846189843542829</v>
+        <v>0.984618984354283</v>
       </c>
       <c r="F113">
         <v>1.137418679924005</v>
@@ -3304,7 +3304,7 @@
         <v>0.9734127947251542</v>
       </c>
       <c r="H113">
-        <v>0.9803103523062831</v>
+        <v>0.9803103523062829</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3364,7 +3364,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.117401352701571</v>
+        <v>1.117401352701572</v>
       </c>
       <c r="C116">
         <v>0.9273670538777623</v>
@@ -3373,13 +3373,13 @@
         <v>1.320344421081611</v>
       </c>
       <c r="E116">
-        <v>0.9443872567988243</v>
+        <v>0.9443872567988242</v>
       </c>
       <c r="F116">
         <v>1.264706171951349</v>
       </c>
       <c r="G116">
-        <v>0.9440747726570676</v>
+        <v>0.9440747726570679</v>
       </c>
       <c r="H116">
         <v>0.950537700125883</v>
@@ -3399,7 +3399,7 @@
         <v>1.12529784664824</v>
       </c>
       <c r="E117">
-        <v>0.9863234353133795</v>
+        <v>0.9863234353133797</v>
       </c>
       <c r="F117">
         <v>1.137464602537393</v>
@@ -3408,7 +3408,7 @@
         <v>0.9750339626468709</v>
       </c>
       <c r="H117">
-        <v>0.9817413943556571</v>
+        <v>0.9817413943556569</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3416,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.987237735674063</v>
+        <v>0.9872377356740631</v>
       </c>
       <c r="C118">
         <v>1.155423773093862</v>
@@ -3451,10 +3451,10 @@
         <v>0.8677743585558433</v>
       </c>
       <c r="E119">
-        <v>1.095332784375102</v>
+        <v>1.095332784375101</v>
       </c>
       <c r="F119">
-        <v>0.9844348154283181</v>
+        <v>0.9844348154283182</v>
       </c>
       <c r="G119">
         <v>1.086328571324858</v>
@@ -3471,22 +3471,22 @@
         <v>1.201218112539825</v>
       </c>
       <c r="C120">
-        <v>0.9178839031265434</v>
+        <v>0.9178839031265433</v>
       </c>
       <c r="D120">
-        <v>1.633041248724307</v>
+        <v>1.633041248724308</v>
       </c>
       <c r="E120">
         <v>0.9415205412978581</v>
       </c>
       <c r="F120">
-        <v>1.485051719824985</v>
+        <v>1.485051719824986</v>
       </c>
       <c r="G120">
-        <v>0.9630192148598287</v>
+        <v>0.9630192148598286</v>
       </c>
       <c r="H120">
-        <v>0.9637622564373974</v>
+        <v>0.9637622564373973</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3497,22 +3497,22 @@
         <v>1.201218112539825</v>
       </c>
       <c r="C121">
-        <v>0.9178839031265436</v>
+        <v>0.9178839031265433</v>
       </c>
       <c r="D121">
-        <v>1.633041248724307</v>
+        <v>1.633041248724308</v>
       </c>
       <c r="E121">
         <v>0.9415205412978582</v>
       </c>
       <c r="F121">
-        <v>1.485051719824985</v>
+        <v>1.485051719824986</v>
       </c>
       <c r="G121">
         <v>0.9630192148598286</v>
       </c>
       <c r="H121">
-        <v>0.9637622564373974</v>
+        <v>0.9637622564373973</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3549,10 +3549,10 @@
         <v>1.156596274420478</v>
       </c>
       <c r="C123">
-        <v>0.9780707116689227</v>
+        <v>0.9780707116689226</v>
       </c>
       <c r="D123">
-        <v>1.191368424647078</v>
+        <v>1.191368424647079</v>
       </c>
       <c r="E123">
         <v>0.9866719504429989</v>
@@ -3581,7 +3581,7 @@
         <v>1.19135258634202</v>
       </c>
       <c r="E124">
-        <v>0.9967095263854456</v>
+        <v>0.9967095263854454</v>
       </c>
       <c r="F124">
         <v>1.188389694273277</v>
@@ -3590,7 +3590,7 @@
         <v>0.9863564793001586</v>
       </c>
       <c r="H124">
-        <v>0.991767510285075</v>
+        <v>0.9917675102850749</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3607,13 +3607,13 @@
         <v>1.156120535693829</v>
       </c>
       <c r="E125">
-        <v>0.986162206173326</v>
+        <v>0.9861622061733257</v>
       </c>
       <c r="F125">
         <v>1.163544028914522</v>
       </c>
       <c r="G125">
-        <v>0.9761313952408963</v>
+        <v>0.9761313952408962</v>
       </c>
       <c r="H125">
         <v>0.982164193703601</v>
@@ -3627,7 +3627,7 @@
         <v>1.111137791392675</v>
       </c>
       <c r="C126">
-        <v>1.057249089956528</v>
+        <v>1.057249089956529</v>
       </c>
       <c r="D126">
         <v>1.073119407804874</v>
@@ -3691,7 +3691,7 @@
         <v>1.1428444397364</v>
       </c>
       <c r="G128">
-        <v>1.10689805045524</v>
+        <v>1.106898050455239</v>
       </c>
       <c r="H128">
         <v>1.104993122922043</v>
@@ -3737,7 +3737,7 @@
         <v>1.621340451748079</v>
       </c>
       <c r="E130">
-        <v>0.9291530952099276</v>
+        <v>0.9291530952099274</v>
       </c>
       <c r="F130">
         <v>1.484825837371954</v>
@@ -3746,7 +3746,7 @@
         <v>0.9479891124816204</v>
       </c>
       <c r="H130">
-        <v>0.9513847277973364</v>
+        <v>0.9513847277973363</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3757,7 +3757,7 @@
         <v>1.336765201473002</v>
       </c>
       <c r="C131">
-        <v>0.6618258292004531</v>
+        <v>0.6618258292004529</v>
       </c>
       <c r="D131">
         <v>1.625599500160082</v>
@@ -3795,7 +3795,7 @@
         <v>1.480526035124036</v>
       </c>
       <c r="G132">
-        <v>0.8935343539785564</v>
+        <v>0.8935343539785563</v>
       </c>
       <c r="H132">
         <v>0.9011177444996451</v>
@@ -3821,10 +3821,10 @@
         <v>1.482176766492558</v>
       </c>
       <c r="G133">
-        <v>0.9144400079699261</v>
+        <v>0.914440007969926</v>
       </c>
       <c r="H133">
-        <v>0.9204156752755637</v>
+        <v>0.9204156752755638</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3841,13 +3841,13 @@
         <v>1.708598263452358</v>
       </c>
       <c r="E134">
-        <v>0.8393859896371432</v>
+        <v>0.8393859896371429</v>
       </c>
       <c r="F134">
         <v>1.538396152951087</v>
       </c>
       <c r="G134">
-        <v>0.9036388592092502</v>
+        <v>0.9036388592092501</v>
       </c>
       <c r="H134">
         <v>0.9094603735635248</v>
@@ -3884,7 +3884,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.30451489825524</v>
+        <v>1.304514898255241</v>
       </c>
       <c r="C136">
         <v>0.8585129228893609</v>
@@ -3899,7 +3899,7 @@
         <v>1.26931932249185</v>
       </c>
       <c r="G136">
-        <v>0.9035525134266431</v>
+        <v>0.9035525134266429</v>
       </c>
       <c r="H136">
         <v>0.9144768819417539</v>
@@ -3936,16 +3936,16 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.300557252473238</v>
+        <v>1.300557252473239</v>
       </c>
       <c r="C138">
-        <v>0.892011887807275</v>
+        <v>0.8920118878072751</v>
       </c>
       <c r="D138">
         <v>1.329276262344571</v>
       </c>
       <c r="E138">
-        <v>0.9188880198868737</v>
+        <v>0.9188880198868736</v>
       </c>
       <c r="F138">
         <v>1.269691266490287</v>
@@ -3971,7 +3971,7 @@
         <v>1.464746070017789</v>
       </c>
       <c r="E139">
-        <v>0.9251726318013123</v>
+        <v>0.925172631801312</v>
       </c>
       <c r="F139">
         <v>1.366809896985377</v>
@@ -3991,13 +3991,13 @@
         <v>1.261478383694074</v>
       </c>
       <c r="C140">
-        <v>0.6640237971147112</v>
+        <v>0.664023797114711</v>
       </c>
       <c r="D140">
         <v>1.00006349756712</v>
       </c>
       <c r="E140">
-        <v>0.8903885696759966</v>
+        <v>0.8903885696759963</v>
       </c>
       <c r="F140">
         <v>1.083800722861484</v>
@@ -4043,7 +4043,7 @@
         <v>1.273269542754429</v>
       </c>
       <c r="C142">
-        <v>0.8829864137572934</v>
+        <v>0.8829864137572935</v>
       </c>
       <c r="D142">
         <v>1.465175482447627</v>
@@ -4058,7 +4058,7 @@
         <v>0.9294630059191912</v>
       </c>
       <c r="H142">
-        <v>0.9357659164858126</v>
+        <v>0.9357659164858125</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4066,10 +4066,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1.271685861212972</v>
+        <v>1.271685861212973</v>
       </c>
       <c r="C143">
-        <v>0.7815024613940764</v>
+        <v>0.7815024613940765</v>
       </c>
       <c r="D143">
         <v>1.235837800712141</v>
@@ -4101,7 +4101,7 @@
         <v>1.229035055167482</v>
       </c>
       <c r="E144">
-        <v>0.9859425774752139</v>
+        <v>0.9859425774752137</v>
       </c>
       <c r="F144">
         <v>1.222337369873447</v>
@@ -4199,13 +4199,13 @@
         <v>1.261723598661856</v>
       </c>
       <c r="C148">
-        <v>0.9463830399474022</v>
+        <v>0.9463830399474024</v>
       </c>
       <c r="D148">
-        <v>1.13156668670012</v>
+        <v>1.131566686700119</v>
       </c>
       <c r="E148">
-        <v>0.95462846393692</v>
+        <v>0.9546284639369199</v>
       </c>
       <c r="F148">
         <v>1.163472226335575</v>
@@ -4214,7 +4214,7 @@
         <v>0.9404988659258613</v>
       </c>
       <c r="H148">
-        <v>0.9513615251060933</v>
+        <v>0.9513615251060932</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4225,13 +4225,13 @@
         <v>1.204785635709599</v>
       </c>
       <c r="C149">
-        <v>0.8455644876864356</v>
+        <v>0.8455644876864354</v>
       </c>
       <c r="D149">
         <v>1.260082559001276</v>
       </c>
       <c r="E149">
-        <v>0.8705819269750412</v>
+        <v>0.8705819269750411</v>
       </c>
       <c r="F149">
         <v>1.217642400056016</v>
@@ -4240,7 +4240,7 @@
         <v>0.8747705698893521</v>
       </c>
       <c r="H149">
-        <v>0.8852158927665442</v>
+        <v>0.885215892766544</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4251,13 +4251,13 @@
         <v>1.204785635709599</v>
       </c>
       <c r="C150">
-        <v>0.8455644876864356</v>
+        <v>0.8455644876864354</v>
       </c>
       <c r="D150">
         <v>1.260082559001276</v>
       </c>
       <c r="E150">
-        <v>0.8705819269750413</v>
+        <v>0.8705819269750412</v>
       </c>
       <c r="F150">
         <v>1.217642400056016</v>
@@ -4266,7 +4266,7 @@
         <v>0.8747705698893521</v>
       </c>
       <c r="H150">
-        <v>0.8852158927665442</v>
+        <v>0.8852158927665441</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4277,19 +4277,19 @@
         <v>1.211993926483867</v>
       </c>
       <c r="C151">
-        <v>0.7939635941214273</v>
+        <v>0.7939635941214271</v>
       </c>
       <c r="D151">
         <v>1.261742881862362</v>
       </c>
       <c r="E151">
-        <v>0.8450694652630735</v>
+        <v>0.8450694652630732</v>
       </c>
       <c r="F151">
         <v>1.217765432360175</v>
       </c>
       <c r="G151">
-        <v>0.853623740054942</v>
+        <v>0.8536237400549419</v>
       </c>
       <c r="H151">
         <v>0.8668778477953509</v>
@@ -4303,13 +4303,13 @@
         <v>1.204785635709599</v>
       </c>
       <c r="C152">
-        <v>0.8455644876864356</v>
+        <v>0.8455644876864354</v>
       </c>
       <c r="D152">
         <v>1.260082559001276</v>
       </c>
       <c r="E152">
-        <v>0.8705819269750413</v>
+        <v>0.8705819269750412</v>
       </c>
       <c r="F152">
         <v>1.217642400056016</v>
@@ -4384,7 +4384,7 @@
         <v>0.8887960021042324</v>
       </c>
       <c r="D155">
-        <v>0.9358643664552</v>
+        <v>0.9358643664552003</v>
       </c>
       <c r="E155">
         <v>0.8915987312038</v>
@@ -4407,10 +4407,10 @@
         <v>1.104305522377218</v>
       </c>
       <c r="C156">
-        <v>0.8887960021042324</v>
+        <v>0.8887960021042325</v>
       </c>
       <c r="D156">
-        <v>0.9358643664552</v>
+        <v>0.9358643664552003</v>
       </c>
       <c r="E156">
         <v>0.8915987312038</v>
@@ -4422,7 +4422,7 @@
         <v>0.8766576888093839</v>
       </c>
       <c r="H156">
-        <v>0.8863861581218081</v>
+        <v>0.8863861581218079</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4433,13 +4433,13 @@
         <v>1.090132920783945</v>
       </c>
       <c r="C157">
-        <v>0.9619220450346428</v>
+        <v>0.9619220450346427</v>
       </c>
       <c r="D157">
         <v>0.874725949693969</v>
       </c>
       <c r="E157">
-        <v>0.9594163657885303</v>
+        <v>0.9594163657885301</v>
       </c>
       <c r="F157">
         <v>0.974447239357261</v>
@@ -4459,7 +4459,7 @@
         <v>1.141175533373486</v>
       </c>
       <c r="C158">
-        <v>0.9159837488471971</v>
+        <v>0.9159837488471972</v>
       </c>
       <c r="D158">
         <v>1.097481582159452</v>
@@ -4474,7 +4474,7 @@
         <v>0.9122463329565577</v>
       </c>
       <c r="H158">
-        <v>0.9187661674006367</v>
+        <v>0.9187661674006368</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4485,7 +4485,7 @@
         <v>1.143117499717683</v>
       </c>
       <c r="C159">
-        <v>0.8219910619208574</v>
+        <v>0.8219910619208572</v>
       </c>
       <c r="D159">
         <v>1.170586127704372</v>
@@ -4494,10 +4494,10 @@
         <v>0.8444969679704832</v>
       </c>
       <c r="F159">
-        <v>1.143292353399533</v>
+        <v>1.143292353399532</v>
       </c>
       <c r="G159">
-        <v>0.8457561471748778</v>
+        <v>0.8457561471748777</v>
       </c>
       <c r="H159">
         <v>0.8562396552648103</v>
@@ -4517,13 +4517,13 @@
         <v>0.9842364123100596</v>
       </c>
       <c r="E160">
-        <v>0.8969646837901663</v>
+        <v>0.896964683790166</v>
       </c>
       <c r="F160">
-        <v>1.008541167734632</v>
+        <v>1.008541167734633</v>
       </c>
       <c r="G160">
-        <v>0.8858847361356229</v>
+        <v>0.8858847361356228</v>
       </c>
       <c r="H160">
         <v>0.8928454854488626</v>
@@ -4552,7 +4552,7 @@
         <v>0.9688617678281145</v>
       </c>
       <c r="H161">
-        <v>0.9708042107235665</v>
+        <v>0.9708042107235663</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4595,16 +4595,16 @@
         <v>1.213008027058808</v>
       </c>
       <c r="E163">
-        <v>0.864006389939824</v>
+        <v>0.8640063899398239</v>
       </c>
       <c r="F163">
-        <v>1.187371665679263</v>
+        <v>1.187371665679262</v>
       </c>
       <c r="G163">
-        <v>0.8663225349309362</v>
+        <v>0.8663225349309361</v>
       </c>
       <c r="H163">
-        <v>0.8792984660997304</v>
+        <v>0.8792984660997303</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4615,7 +4615,7 @@
         <v>1.167684704747154</v>
       </c>
       <c r="C164">
-        <v>0.9344507525928369</v>
+        <v>0.9344507525928371</v>
       </c>
       <c r="D164">
         <v>1.133124742641034</v>
@@ -4627,10 +4627,10 @@
         <v>1.144721811534535</v>
       </c>
       <c r="G164">
-        <v>0.9316817864363736</v>
+        <v>0.9316817864363734</v>
       </c>
       <c r="H164">
-        <v>0.9398661602050211</v>
+        <v>0.9398661602050209</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4647,13 +4647,13 @@
         <v>0.9789246335128114</v>
       </c>
       <c r="E165">
-        <v>0.9064250723507141</v>
+        <v>0.9064250723507142</v>
       </c>
       <c r="F165">
         <v>1.036972154909608</v>
       </c>
       <c r="G165">
-        <v>0.8944017072511312</v>
+        <v>0.8944017072511311</v>
       </c>
       <c r="H165">
         <v>0.9040707324724137</v>
@@ -4667,19 +4667,19 @@
         <v>1.074535228669808</v>
       </c>
       <c r="C166">
-        <v>0.9037889395852655</v>
+        <v>0.9037889395852654</v>
       </c>
       <c r="D166">
         <v>0.9789246335128113</v>
       </c>
       <c r="E166">
-        <v>0.9064250723507141</v>
+        <v>0.9064250723507142</v>
       </c>
       <c r="F166">
         <v>1.036972154909608</v>
       </c>
       <c r="G166">
-        <v>0.8944017072511312</v>
+        <v>0.8944017072511311</v>
       </c>
       <c r="H166">
         <v>0.9040707324724137</v>
@@ -4696,19 +4696,19 @@
         <v>1.00361164112782</v>
       </c>
       <c r="D167">
-        <v>0.8929111238304525</v>
+        <v>0.8929111238304527</v>
       </c>
       <c r="E167">
         <v>0.9968003813344044</v>
       </c>
       <c r="F167">
-        <v>0.9558914590065104</v>
+        <v>0.9558914590065102</v>
       </c>
       <c r="G167">
         <v>0.9869353480398921</v>
       </c>
       <c r="H167">
-        <v>0.9883473940272028</v>
+        <v>0.9883473940272027</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4716,10 +4716,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.9382269806019972</v>
+        <v>0.9382269806019973</v>
       </c>
       <c r="C168">
-        <v>1.100180095969577</v>
+        <v>1.100180095969576</v>
       </c>
       <c r="D168">
         <v>0.764142721541812</v>
@@ -4728,7 +4728,7 @@
         <v>1.08065185387228</v>
       </c>
       <c r="F168">
-        <v>0.8780949549032323</v>
+        <v>0.8780949549032319</v>
       </c>
       <c r="G168">
         <v>1.072948390824549</v>
@@ -4748,7 +4748,7 @@
         <v>0.906316983692386</v>
       </c>
       <c r="D169">
-        <v>1.579723746687182</v>
+        <v>1.579723746687183</v>
       </c>
       <c r="E169">
         <v>0.9431519894750555</v>
@@ -4757,10 +4757,10 @@
         <v>1.462093853291276</v>
       </c>
       <c r="G169">
-        <v>0.9554036619295195</v>
+        <v>0.9554036619295194</v>
       </c>
       <c r="H169">
-        <v>0.958856384546411</v>
+        <v>0.9588563845464111</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4800,16 +4800,16 @@
         <v>0.9180622263052021</v>
       </c>
       <c r="D171">
-        <v>1.579578212781281</v>
+        <v>1.579578212781282</v>
       </c>
       <c r="E171">
-        <v>0.9482790022751548</v>
+        <v>0.9482790022751546</v>
       </c>
       <c r="F171">
         <v>1.462321193690792</v>
       </c>
       <c r="G171">
-        <v>0.9589604739276855</v>
+        <v>0.9589604739276856</v>
       </c>
       <c r="H171">
         <v>0.9621136306227662</v>
@@ -4829,7 +4829,7 @@
         <v>1.544312818237028</v>
       </c>
       <c r="E172">
-        <v>0.9295445432126705</v>
+        <v>0.9295445432126704</v>
       </c>
       <c r="F172">
         <v>1.438069935575292</v>
@@ -4875,7 +4875,7 @@
         <v>1.351543196969769</v>
       </c>
       <c r="C174">
-        <v>0.6839168939547547</v>
+        <v>0.6839168939547546</v>
       </c>
       <c r="D174">
         <v>1.544890485354552</v>
@@ -4913,7 +4913,7 @@
         <v>1.184293909449175</v>
       </c>
       <c r="G175">
-        <v>1.051181745406028</v>
+        <v>1.051181745406029</v>
       </c>
       <c r="H175">
         <v>1.054177057908441</v>
@@ -4930,7 +4930,7 @@
         <v>0.9953721608848248</v>
       </c>
       <c r="D176">
-        <v>1.20659212968752</v>
+        <v>1.206592129687519</v>
       </c>
       <c r="E176">
         <v>1.003314890361415</v>
@@ -4939,10 +4939,10 @@
         <v>1.217092219829329</v>
       </c>
       <c r="G176">
-        <v>0.9896141138764799</v>
+        <v>0.9896141138764798</v>
       </c>
       <c r="H176">
-        <v>0.9958519676288426</v>
+        <v>0.9958519676288425</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4965,10 +4965,10 @@
         <v>1.217092219829329</v>
       </c>
       <c r="G177">
-        <v>0.9896141138764798</v>
+        <v>0.9896141138764797</v>
       </c>
       <c r="H177">
-        <v>0.9958519676288426</v>
+        <v>0.9958519676288424</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4979,22 +4979,22 @@
         <v>1.306511859332286</v>
       </c>
       <c r="C178">
-        <v>0.8992091070167153</v>
+        <v>0.8992091070167151</v>
       </c>
       <c r="D178">
         <v>1.23883251491134</v>
       </c>
       <c r="E178">
-        <v>0.9274096360417743</v>
+        <v>0.9274096360417741</v>
       </c>
       <c r="F178">
         <v>1.21512411191977</v>
       </c>
       <c r="G178">
-        <v>0.9163435560327763</v>
+        <v>0.9163435560327762</v>
       </c>
       <c r="H178">
-        <v>0.9273164111992834</v>
+        <v>0.9273164111992833</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5011,13 +5011,13 @@
         <v>1.14982907076864</v>
       </c>
       <c r="E179">
-        <v>0.9868293223540053</v>
+        <v>0.9868293223540052</v>
       </c>
       <c r="F179">
         <v>1.166262600263048</v>
       </c>
       <c r="G179">
-        <v>0.9721235691536559</v>
+        <v>0.9721235691536557</v>
       </c>
       <c r="H179">
         <v>0.9795945820518879</v>
@@ -5054,7 +5054,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.241972540625816</v>
+        <v>1.241972540625817</v>
       </c>
       <c r="C181">
         <v>1.139283769528418</v>
@@ -5083,7 +5083,7 @@
         <v>1.090358926697799</v>
       </c>
       <c r="C182">
-        <v>1.08672853703615</v>
+        <v>1.086728537036149</v>
       </c>
       <c r="D182">
         <v>0.8171450165632814</v>
@@ -5098,7 +5098,7 @@
         <v>1.060118618684786</v>
       </c>
       <c r="H182">
-        <v>1.058855933541596</v>
+        <v>1.058855933541597</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5118,7 +5118,7 @@
         <v>1.036667006352784</v>
       </c>
       <c r="F183">
-        <v>0.9338249238349717</v>
+        <v>0.9338249238349716</v>
       </c>
       <c r="G183">
         <v>1.023765925026137</v>
@@ -5132,7 +5132,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.205601397461044</v>
+        <v>1.205601397461045</v>
       </c>
       <c r="C184">
         <v>1.03764951708796</v>
@@ -5164,7 +5164,7 @@
         <v>1.03764951708796</v>
       </c>
       <c r="D185">
-        <v>0.9515106031087428</v>
+        <v>0.9515106031087427</v>
       </c>
       <c r="E185">
         <v>1.038636685542833</v>
@@ -5190,7 +5190,7 @@
         <v>1.089130721411829</v>
       </c>
       <c r="D186">
-        <v>0.8432928388651999</v>
+        <v>0.8432928388652</v>
       </c>
       <c r="E186">
         <v>1.074891382129757</v>
@@ -5219,16 +5219,16 @@
         <v>0.9071462214199005</v>
       </c>
       <c r="E187">
-        <v>1.002760451844819</v>
+        <v>1.002760451844818</v>
       </c>
       <c r="F187">
         <v>1.009628992587146</v>
       </c>
       <c r="G187">
-        <v>0.9880943864869225</v>
+        <v>0.9880943864869223</v>
       </c>
       <c r="H187">
-        <v>0.9936498296392792</v>
+        <v>0.9936498296392788</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5242,7 +5242,7 @@
         <v>1.07720370767305</v>
       </c>
       <c r="D188">
-        <v>0.7815983929837089</v>
+        <v>0.781598392983709</v>
       </c>
       <c r="E188">
         <v>1.061965487443943</v>
@@ -5268,13 +5268,13 @@
         <v>1.090106244443599</v>
       </c>
       <c r="D189">
-        <v>0.7204548560036317</v>
+        <v>0.7204548560036318</v>
       </c>
       <c r="E189">
         <v>1.072395257811657</v>
       </c>
       <c r="F189">
-        <v>0.9136794045303314</v>
+        <v>0.9136794045303313</v>
       </c>
       <c r="G189">
         <v>1.061498217619331</v>
@@ -5300,7 +5300,7 @@
         <v>1.072395257811657</v>
       </c>
       <c r="F190">
-        <v>0.9136794045303314</v>
+        <v>0.9136794045303313</v>
       </c>
       <c r="G190">
         <v>1.061498217619331</v>
@@ -5314,13 +5314,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.193545541320197</v>
+        <v>1.193545541320198</v>
       </c>
       <c r="C191">
         <v>1.040134441540375</v>
       </c>
       <c r="D191">
-        <v>0.9809115365670464</v>
+        <v>0.9809115365670463</v>
       </c>
       <c r="E191">
         <v>1.040510288523333</v>
@@ -5346,7 +5346,7 @@
         <v>1.003655798675169</v>
       </c>
       <c r="D192">
-        <v>0.9071462214199005</v>
+        <v>0.9071462214199008</v>
       </c>
       <c r="E192">
         <v>1.002760451844819</v>
@@ -5358,7 +5358,7 @@
         <v>0.9880943864869225</v>
       </c>
       <c r="H192">
-        <v>0.9936498296392793</v>
+        <v>0.9936498296392789</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5375,16 +5375,16 @@
         <v>1.548895139628795</v>
       </c>
       <c r="E193">
-        <v>0.9261255399411261</v>
+        <v>0.926125539941126</v>
       </c>
       <c r="F193">
         <v>1.438696833165542</v>
       </c>
       <c r="G193">
-        <v>0.9371272303224157</v>
+        <v>0.9371272303224156</v>
       </c>
       <c r="H193">
-        <v>0.9427430627743553</v>
+        <v>0.942743062774355</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5392,7 +5392,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1.288715773396881</v>
+        <v>1.288715773396882</v>
       </c>
       <c r="C194">
         <v>0.731723591965568</v>
@@ -5401,16 +5401,16 @@
         <v>1.550822327983315</v>
       </c>
       <c r="E194">
-        <v>0.8484386587511149</v>
+        <v>0.8484386587511148</v>
       </c>
       <c r="F194">
         <v>1.435259613041828</v>
       </c>
       <c r="G194">
-        <v>0.8840484760183682</v>
+        <v>0.8840484760183681</v>
       </c>
       <c r="H194">
-        <v>0.894626580104908</v>
+        <v>0.8946265801049077</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5433,10 +5433,10 @@
         <v>1.461752376046505</v>
       </c>
       <c r="G195">
-        <v>0.9500611431168088</v>
+        <v>0.9500611431168084</v>
       </c>
       <c r="H195">
-        <v>0.9539638295141154</v>
+        <v>0.9539638295141153</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5453,16 +5453,16 @@
         <v>1.344441236037113</v>
       </c>
       <c r="E196">
-        <v>0.9249507368705594</v>
+        <v>0.9249507368705596</v>
       </c>
       <c r="F196">
-        <v>1.310470793836473</v>
+        <v>1.310470793836474</v>
       </c>
       <c r="G196">
-        <v>0.9217856817696534</v>
+        <v>0.9217856817696531</v>
       </c>
       <c r="H196">
-        <v>0.9315218135640935</v>
+        <v>0.9315218135640934</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5473,7 +5473,7 @@
         <v>1.229075746237968</v>
       </c>
       <c r="C197">
-        <v>0.893495401047872</v>
+        <v>0.8934954010478718</v>
       </c>
       <c r="D197">
         <v>1.356520428635133</v>
@@ -5485,7 +5485,7 @@
         <v>1.30213413502565</v>
       </c>
       <c r="G197">
-        <v>0.9202045876658568</v>
+        <v>0.920204587665857</v>
       </c>
       <c r="H197">
         <v>0.9276240962261101</v>
@@ -5496,10 +5496,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.240685321928822</v>
+        <v>1.240685321928823</v>
       </c>
       <c r="C198">
-        <v>0.8149932489805279</v>
+        <v>0.8149932489805278</v>
       </c>
       <c r="D198">
         <v>1.35736225599993</v>
@@ -5514,7 +5514,7 @@
         <v>0.8866661126760738</v>
       </c>
       <c r="H198">
-        <v>0.8980086928445443</v>
+        <v>0.8980086928445442</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5534,7 +5534,7 @@
         <v>0.97257092351714</v>
       </c>
       <c r="F199">
-        <v>1.251997918818898</v>
+        <v>1.251997918818897</v>
       </c>
       <c r="G199">
         <v>0.9662231983785731</v>
@@ -5551,19 +5551,19 @@
         <v>1.226932997851371</v>
       </c>
       <c r="C200">
-        <v>0.9891031593064089</v>
+        <v>0.989103159306409</v>
       </c>
       <c r="D200">
         <v>1.271409213884975</v>
       </c>
       <c r="E200">
-        <v>0.9953295293421939</v>
+        <v>0.9953295293421938</v>
       </c>
       <c r="F200">
         <v>1.252642350399775</v>
       </c>
       <c r="G200">
-        <v>0.9869506489944327</v>
+        <v>0.9869506489944329</v>
       </c>
       <c r="H200">
         <v>0.9911057429188446</v>
@@ -5641,7 +5641,7 @@
         <v>1.262702247094362</v>
       </c>
       <c r="G203">
-        <v>0.9870730147244231</v>
+        <v>0.9870730147244229</v>
       </c>
       <c r="H203">
         <v>0.993036897724265</v>
@@ -5722,7 +5722,7 @@
         <v>0.8017018694738599</v>
       </c>
       <c r="H206">
-        <v>0.798253025363038</v>
+        <v>0.7982530253630379</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5730,7 +5730,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.9569267071066848</v>
+        <v>0.9569267071066846</v>
       </c>
       <c r="C207">
         <v>0.73705098515914</v>
@@ -5739,13 +5739,13 @@
         <v>1.106154974986181</v>
       </c>
       <c r="E207">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
       <c r="F207">
         <v>1.012381411855389</v>
       </c>
       <c r="G207">
-        <v>0.7480482176599806</v>
+        <v>0.7480482176599805</v>
       </c>
       <c r="H207">
         <v>0.7472124894645789</v>
@@ -5756,19 +5756,19 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.9569267071066848</v>
+        <v>0.9569267071066846</v>
       </c>
       <c r="C208">
-        <v>0.73705098515914</v>
+        <v>0.7370509851591399</v>
       </c>
       <c r="D208">
         <v>1.106154974986181</v>
       </c>
       <c r="E208">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
       <c r="F208">
-        <v>1.012381411855388</v>
+        <v>1.012381411855389</v>
       </c>
       <c r="G208">
         <v>0.7480482176599805</v>
@@ -5782,7 +5782,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.94746509259931</v>
+        <v>0.9474650925993099</v>
       </c>
       <c r="C209">
         <v>0.674214471253575</v>
@@ -5791,16 +5791,16 @@
         <v>1.262574265132858</v>
       </c>
       <c r="E209">
-        <v>0.6987665256794595</v>
+        <v>0.6987665256794594</v>
       </c>
       <c r="F209">
         <v>1.121438731558926</v>
       </c>
       <c r="G209">
-        <v>0.746334183487256</v>
+        <v>0.7463341834872559</v>
       </c>
       <c r="H209">
-        <v>0.7448125318932426</v>
+        <v>0.7448125318932425</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5811,13 +5811,13 @@
         <v>0.9569267071066846</v>
       </c>
       <c r="C210">
-        <v>0.73705098515914</v>
+        <v>0.7370509851591399</v>
       </c>
       <c r="D210">
         <v>1.106154974986181</v>
       </c>
       <c r="E210">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
       <c r="F210">
         <v>1.012381411855389</v>
@@ -5837,7 +5837,7 @@
         <v>0.9416784782902266</v>
       </c>
       <c r="C211">
-        <v>0.8543962609879486</v>
+        <v>0.8543962609879485</v>
       </c>
       <c r="D211">
         <v>1.036912871093214</v>
@@ -5866,7 +5866,7 @@
         <v>0.901103201051999</v>
       </c>
       <c r="D212">
-        <v>1.085932224079091</v>
+        <v>1.08593222407909</v>
       </c>
       <c r="E212">
         <v>0.8863929513297156</v>
@@ -5886,7 +5886,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.9569267071066848</v>
+        <v>0.9569267071066846</v>
       </c>
       <c r="C213">
         <v>0.73705098515914</v>
@@ -5895,13 +5895,13 @@
         <v>1.106154974986181</v>
       </c>
       <c r="E213">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
       <c r="F213">
         <v>1.012381411855389</v>
       </c>
       <c r="G213">
-        <v>0.7480482176599806</v>
+        <v>0.7480482176599805</v>
       </c>
       <c r="H213">
         <v>0.7472124894645789</v>
@@ -5915,19 +5915,19 @@
         <v>0.9894206963708496</v>
       </c>
       <c r="C214">
-        <v>0.7879377843390065</v>
+        <v>0.7879377843390066</v>
       </c>
       <c r="D214">
-        <v>0.918734960180277</v>
+        <v>0.9187349601802769</v>
       </c>
       <c r="E214">
-        <v>0.7789809708875981</v>
+        <v>0.7789809708875982</v>
       </c>
       <c r="F214">
         <v>0.9037914098893145</v>
       </c>
       <c r="G214">
-        <v>0.7754673798762259</v>
+        <v>0.7754673798762258</v>
       </c>
       <c r="H214">
         <v>0.775168118162874</v>
@@ -5941,10 +5941,10 @@
         <v>0.9894206963708496</v>
       </c>
       <c r="C215">
-        <v>0.7879377843390065</v>
+        <v>0.7879377843390066</v>
       </c>
       <c r="D215">
-        <v>0.918734960180277</v>
+        <v>0.9187349601802769</v>
       </c>
       <c r="E215">
         <v>0.7789809708875981</v>
@@ -5953,7 +5953,7 @@
         <v>0.9037914098893145</v>
       </c>
       <c r="G215">
-        <v>0.7754673798762259</v>
+        <v>0.7754673798762258</v>
       </c>
       <c r="H215">
         <v>0.7751681181628739</v>
@@ -5967,10 +5967,10 @@
         <v>0.9463783770560574</v>
       </c>
       <c r="C216">
-        <v>0.774963297289826</v>
+        <v>0.7749632972898259</v>
       </c>
       <c r="D216">
-        <v>0.7714113865436825</v>
+        <v>0.7714113865436827</v>
       </c>
       <c r="E216">
         <v>0.7655928400440163</v>
@@ -6002,10 +6002,10 @@
         <v>0.7919774948576035</v>
       </c>
       <c r="F217">
-        <v>0.8525912380620226</v>
+        <v>0.8525912380620224</v>
       </c>
       <c r="G217">
-        <v>0.78961294247743</v>
+        <v>0.7896129424774301</v>
       </c>
       <c r="H217">
         <v>0.7869919956894084</v>
@@ -6022,19 +6022,19 @@
         <v>0.8999191155814283</v>
       </c>
       <c r="D218">
-        <v>0.847954365439497</v>
+        <v>0.8479543654394968</v>
       </c>
       <c r="E218">
         <v>0.8833515718474902</v>
       </c>
       <c r="F218">
-        <v>0.8131915384599778</v>
+        <v>0.8131915384599777</v>
       </c>
       <c r="G218">
         <v>0.879679902893594</v>
       </c>
       <c r="H218">
-        <v>0.8754248507897104</v>
+        <v>0.8754248507897103</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6045,7 +6045,7 @@
         <v>0.8905675154633502</v>
       </c>
       <c r="C219">
-        <v>0.8870606071298317</v>
+        <v>0.8870606071298316</v>
       </c>
       <c r="D219">
         <v>1.015737432210515</v>
@@ -6054,13 +6054,13 @@
         <v>0.8719185965862752</v>
       </c>
       <c r="F219">
-        <v>0.954393506956594</v>
+        <v>0.9543935069565939</v>
       </c>
       <c r="G219">
-        <v>0.8705084452877921</v>
+        <v>0.8705084452877924</v>
       </c>
       <c r="H219">
-        <v>0.8678514907893596</v>
+        <v>0.8678514907893595</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6071,7 +6071,7 @@
         <v>0.8937580819406574</v>
       </c>
       <c r="C220">
-        <v>0.9193219455403934</v>
+        <v>0.9193219455403935</v>
       </c>
       <c r="D220">
         <v>1.021024703583678</v>
@@ -6080,10 +6080,10 @@
         <v>0.9030254974280073</v>
       </c>
       <c r="F220">
-        <v>0.9457878068827578</v>
+        <v>0.9457878068827575</v>
       </c>
       <c r="G220">
-        <v>0.9006890826224514</v>
+        <v>0.9006890826224513</v>
       </c>
       <c r="H220">
         <v>0.896357736082992</v>
@@ -6097,19 +6097,19 @@
         <v>0.8663343447877091</v>
       </c>
       <c r="C221">
-        <v>0.9830873562543148</v>
+        <v>0.9830873562543145</v>
       </c>
       <c r="D221">
-        <v>0.9069414449620908</v>
+        <v>0.9069414449620909</v>
       </c>
       <c r="E221">
         <v>0.9641595474932839</v>
       </c>
       <c r="F221">
-        <v>0.9039684963447373</v>
+        <v>0.9039684963447374</v>
       </c>
       <c r="G221">
-        <v>0.960955123698939</v>
+        <v>0.9609551236989389</v>
       </c>
       <c r="H221">
         <v>0.9574763874298354</v>
@@ -6132,13 +6132,13 @@
         <v>0.8719185965862751</v>
       </c>
       <c r="F222">
-        <v>0.954393506956594</v>
+        <v>0.9543935069565939</v>
       </c>
       <c r="G222">
         <v>0.8705084452877924</v>
       </c>
       <c r="H222">
-        <v>0.8678514907893596</v>
+        <v>0.8678514907893595</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6172,19 +6172,19 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.9726270951590622</v>
+        <v>0.9726270951590621</v>
       </c>
       <c r="C224">
         <v>0.9682981366438433</v>
       </c>
       <c r="D224">
-        <v>0.6500376554025967</v>
+        <v>0.6500376554025965</v>
       </c>
       <c r="E224">
         <v>0.9461051281477487</v>
       </c>
       <c r="F224">
-        <v>0.8083381728002521</v>
+        <v>0.808338172800252</v>
       </c>
       <c r="G224">
         <v>0.9395359299593492</v>
@@ -6204,7 +6204,7 @@
         <v>0.7539606190496908</v>
       </c>
       <c r="D225">
-        <v>0.7640143465176077</v>
+        <v>0.7640143465176076</v>
       </c>
       <c r="E225">
         <v>0.7464245643753259</v>
@@ -6227,7 +6227,7 @@
         <v>1.007961713645172</v>
       </c>
       <c r="C226">
-        <v>0.8564217974469919</v>
+        <v>0.8564217974469921</v>
       </c>
       <c r="D226">
         <v>0.7032309528159927</v>
@@ -6239,7 +6239,7 @@
         <v>0.8409629615485748</v>
       </c>
       <c r="G226">
-        <v>0.8347137954849051</v>
+        <v>0.8347137954849052</v>
       </c>
       <c r="H226">
         <v>0.8361994281453408</v>
@@ -6253,16 +6253,16 @@
         <v>1.046767866803327</v>
       </c>
       <c r="C227">
-        <v>0.640633062943865</v>
+        <v>0.6406330629438651</v>
       </c>
       <c r="D227">
-        <v>0.8763569256189223</v>
+        <v>0.876356925618922</v>
       </c>
       <c r="E227">
-        <v>0.6552611741076083</v>
+        <v>0.6552611741076082</v>
       </c>
       <c r="F227">
-        <v>0.9007595330375899</v>
+        <v>0.90075953303759</v>
       </c>
       <c r="G227">
         <v>0.6620059626992779</v>
@@ -6282,7 +6282,7 @@
         <v>0.9706581054371133</v>
       </c>
       <c r="D228">
-        <v>0.5353676304951102</v>
+        <v>0.5353676304951103</v>
       </c>
       <c r="E228">
         <v>0.9482556114350416</v>
@@ -6294,7 +6294,7 @@
         <v>0.9402167549286145</v>
       </c>
       <c r="H228">
-        <v>0.9370200984664729</v>
+        <v>0.9370200984664728</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6311,13 +6311,13 @@
         <v>1.021024703583678</v>
       </c>
       <c r="E229">
-        <v>0.9030254974280074</v>
+        <v>0.9030254974280075</v>
       </c>
       <c r="F229">
-        <v>0.9457878068827578</v>
+        <v>0.9457878068827575</v>
       </c>
       <c r="G229">
-        <v>0.9006890826224513</v>
+        <v>0.9006890826224514</v>
       </c>
       <c r="H229">
         <v>0.896357736082992</v>
@@ -6334,7 +6334,7 @@
         <v>0.8933604935582361</v>
       </c>
       <c r="D230">
-        <v>0.9799502193540965</v>
+        <v>0.9799502193540967</v>
       </c>
       <c r="E230">
         <v>0.8782589041862059</v>
@@ -6357,22 +6357,22 @@
         <v>0.9094873865415257</v>
       </c>
       <c r="C231">
-        <v>0.9856888661839686</v>
+        <v>0.9856888661839684</v>
       </c>
       <c r="D231">
         <v>1.01153778443103</v>
       </c>
       <c r="E231">
-        <v>0.9670087575906375</v>
+        <v>0.9670087575906378</v>
       </c>
       <c r="F231">
-        <v>0.9392849041849228</v>
+        <v>0.9392849041849229</v>
       </c>
       <c r="G231">
-        <v>0.9650105542535827</v>
+        <v>0.9650105542535826</v>
       </c>
       <c r="H231">
-        <v>0.9590783649557808</v>
+        <v>0.9590783649557807</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6386,16 +6386,16 @@
         <v>0.9421001520755884</v>
       </c>
       <c r="D232">
-        <v>0.9402413619285312</v>
+        <v>0.9402413619285311</v>
       </c>
       <c r="E232">
-        <v>0.9242804892663183</v>
+        <v>0.9242804892663182</v>
       </c>
       <c r="F232">
         <v>0.8748958752347339</v>
       </c>
       <c r="G232">
-        <v>0.9218890608789145</v>
+        <v>0.9218890608789144</v>
       </c>
       <c r="H232">
         <v>0.9165133903456254</v>
@@ -6412,7 +6412,7 @@
         <v>1.052861656434301</v>
       </c>
       <c r="D233">
-        <v>0.8102424626575455</v>
+        <v>0.8102424626575453</v>
       </c>
       <c r="E233">
         <v>1.026609711130271</v>
@@ -6421,7 +6421,7 @@
         <v>0.7802565267366937</v>
       </c>
       <c r="G233">
-        <v>1.022906067060288</v>
+        <v>1.022906067060287</v>
       </c>
       <c r="H233">
         <v>1.015606813638706</v>
@@ -6450,7 +6450,7 @@
         <v>1.033027121584879</v>
       </c>
       <c r="H234">
-        <v>1.026586156382931</v>
+        <v>1.02658615638293</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6516,19 +6516,19 @@
         <v>0.8490172201647073</v>
       </c>
       <c r="D237">
-        <v>0.8126605761046977</v>
+        <v>0.8126605761046973</v>
       </c>
       <c r="E237">
-        <v>0.835373058264898</v>
+        <v>0.8353730582648979</v>
       </c>
       <c r="F237">
-        <v>0.8647128396592253</v>
+        <v>0.8647128396592254</v>
       </c>
       <c r="G237">
         <v>0.8295343075365299</v>
       </c>
       <c r="H237">
-        <v>0.8291683290519982</v>
+        <v>0.8291683290519981</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6548,13 +6548,13 @@
         <v>0.7420856451565216</v>
       </c>
       <c r="F238">
-        <v>0.8999234831971353</v>
+        <v>0.8999234831971356</v>
       </c>
       <c r="G238">
         <v>0.7383751327652854</v>
       </c>
       <c r="H238">
-        <v>0.7406152025551894</v>
+        <v>0.7406152025551893</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6565,16 +6565,16 @@
         <v>0.9645848072030048</v>
       </c>
       <c r="C239">
-        <v>0.9703822057869476</v>
+        <v>0.9703822057869474</v>
       </c>
       <c r="D239">
-        <v>0.6861886564570975</v>
+        <v>0.6861886564570974</v>
       </c>
       <c r="E239">
-        <v>0.9467399827249491</v>
+        <v>0.946739982724949</v>
       </c>
       <c r="F239">
-        <v>0.7952264444067236</v>
+        <v>0.795226444406724</v>
       </c>
       <c r="G239">
         <v>0.94151453739871</v>
@@ -6594,19 +6594,19 @@
         <v>0.9291520387870209</v>
       </c>
       <c r="D240">
-        <v>0.5501376420665092</v>
+        <v>0.5501376420665091</v>
       </c>
       <c r="E240">
         <v>0.9080003465075168</v>
       </c>
       <c r="F240">
-        <v>0.695967930868834</v>
+        <v>0.6959679308688339</v>
       </c>
       <c r="G240">
         <v>0.9001203726526134</v>
       </c>
       <c r="H240">
-        <v>0.8975578185154425</v>
+        <v>0.8975578185154423</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6617,13 +6617,13 @@
         <v>0.9054315532822305</v>
       </c>
       <c r="C241">
-        <v>0.954678872541752</v>
+        <v>0.9546788725417522</v>
       </c>
       <c r="D241">
         <v>0.4790480257762214</v>
       </c>
       <c r="E241">
-        <v>0.9314495291351751</v>
+        <v>0.931449529135175</v>
       </c>
       <c r="F241">
         <v>0.650871642177494</v>
@@ -6632,7 +6632,7 @@
         <v>0.9234704120971241</v>
       </c>
       <c r="H241">
-        <v>0.920102993925127</v>
+        <v>0.9201029939251268</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6646,7 +6646,7 @@
         <v>0.9830873562543148</v>
       </c>
       <c r="D242">
-        <v>0.9069414449620908</v>
+        <v>0.9069414449620909</v>
       </c>
       <c r="E242">
         <v>0.9641595474932839</v>
@@ -6655,7 +6655,7 @@
         <v>0.9039684963447375</v>
       </c>
       <c r="G242">
-        <v>0.9609551236989391</v>
+        <v>0.9609551236989389</v>
       </c>
       <c r="H242">
         <v>0.9574763874298355</v>
@@ -6666,7 +6666,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.8733015098447338</v>
+        <v>0.873301509844734</v>
       </c>
       <c r="C243">
         <v>1.001037269391776</v>
@@ -6675,16 +6675,16 @@
         <v>0.8862128033594253</v>
       </c>
       <c r="E243">
-        <v>0.9825449793281543</v>
+        <v>0.982544979328154</v>
       </c>
       <c r="F243">
-        <v>0.9326056608247526</v>
+        <v>0.9326056608247527</v>
       </c>
       <c r="G243">
         <v>0.9764679088602586</v>
       </c>
       <c r="H243">
-        <v>0.9760185974873299</v>
+        <v>0.97601859748733</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6695,10 +6695,10 @@
         <v>0.8663343447877091</v>
       </c>
       <c r="C244">
-        <v>0.9830873562543148</v>
+        <v>0.9830873562543145</v>
       </c>
       <c r="D244">
-        <v>0.9069414449620908</v>
+        <v>0.9069414449620909</v>
       </c>
       <c r="E244">
         <v>0.9641595474932839</v>
@@ -6710,7 +6710,7 @@
         <v>0.9609551236989389</v>
       </c>
       <c r="H244">
-        <v>0.9574763874298358</v>
+        <v>0.9574763874298354</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6718,13 +6718,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.8176034447753978</v>
+        <v>0.8176034447753979</v>
       </c>
       <c r="C245">
         <v>1.090408735480962</v>
       </c>
       <c r="D245">
-        <v>0.8124804535350443</v>
+        <v>0.8124804535350442</v>
       </c>
       <c r="E245">
         <v>1.064943116728071</v>
@@ -6733,7 +6733,7 @@
         <v>0.8761389208918692</v>
       </c>
       <c r="G245">
-        <v>1.059925657488541</v>
+        <v>1.05992565748854</v>
       </c>
       <c r="H245">
         <v>1.055806888741908</v>
@@ -6750,7 +6750,7 @@
         <v>1.097361680137139</v>
       </c>
       <c r="D246">
-        <v>0.7945524067330041</v>
+        <v>0.794552406733004</v>
       </c>
       <c r="E246">
         <v>1.071013567006059</v>
@@ -6770,7 +6770,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.7882722371095189</v>
+        <v>0.788272237109519</v>
       </c>
       <c r="C247">
         <v>1.097361680137139</v>
@@ -6802,7 +6802,7 @@
         <v>1.043844289427534</v>
       </c>
       <c r="D248">
-        <v>0.9001353786739882</v>
+        <v>0.9001353786739881</v>
       </c>
       <c r="E248">
         <v>1.018402948484573</v>
@@ -6822,7 +6822,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.9024661571462053</v>
+        <v>0.9024661571462052</v>
       </c>
       <c r="C249">
         <v>0.9847457948777341</v>
@@ -6831,7 +6831,7 @@
         <v>0.4902199836793072</v>
       </c>
       <c r="E249">
-        <v>0.9610814430919092</v>
+        <v>0.9610814430919091</v>
       </c>
       <c r="F249">
         <v>0.6589737776573734</v>
@@ -6840,7 +6840,7 @@
         <v>0.9528610378619468</v>
       </c>
       <c r="H249">
-        <v>0.9491647712897812</v>
+        <v>0.9491647712897811</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6915,7 +6915,7 @@
         <v>1.095485389615504</v>
       </c>
       <c r="G252">
-        <v>0.9968141410039721</v>
+        <v>0.9968141410039723</v>
       </c>
       <c r="H252">
         <v>0.9955560867915773</v>
@@ -6926,7 +6926,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.9608788413174363</v>
+        <v>0.9608788413174364</v>
       </c>
       <c r="C253">
         <v>1.119415280875079</v>
@@ -6935,7 +6935,7 @@
         <v>0.8091163630938849</v>
       </c>
       <c r="E253">
-        <v>1.099261976045749</v>
+        <v>1.09926197604575</v>
       </c>
       <c r="F253">
         <v>0.9377489252534309</v>
@@ -6984,10 +6984,10 @@
         <v>1.119415280875079</v>
       </c>
       <c r="D255">
-        <v>0.8091163630938848</v>
+        <v>0.8091163630938849</v>
       </c>
       <c r="E255">
-        <v>1.099261976045749</v>
+        <v>1.09926197604575</v>
       </c>
       <c r="F255">
         <v>0.9377489252534309</v>
@@ -7004,7 +7004,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.8595108111352492</v>
+        <v>0.8595108111352494</v>
       </c>
       <c r="C256">
         <v>1.095036698277682</v>
@@ -7016,7 +7016,7 @@
         <v>1.072267214390183</v>
       </c>
       <c r="F256">
-        <v>0.908213295940674</v>
+        <v>0.9082132959406739</v>
       </c>
       <c r="G256">
         <v>1.068288016230967</v>
@@ -7036,7 +7036,7 @@
         <v>1.053079425866684</v>
       </c>
       <c r="D257">
-        <v>0.6356514902432835</v>
+        <v>0.6356514902432836</v>
       </c>
       <c r="E257">
         <v>1.030391777591282</v>
@@ -7056,13 +7056,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.8708983838614268</v>
+        <v>0.8708983838614267</v>
       </c>
       <c r="C258">
         <v>1.030992145544706</v>
       </c>
       <c r="D258">
-        <v>0.6390971821684687</v>
+        <v>0.6390971821684686</v>
       </c>
       <c r="E258">
         <v>1.013901370856889</v>
@@ -7082,7 +7082,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.8708983838614268</v>
+        <v>0.8708983838614267</v>
       </c>
       <c r="C259">
         <v>1.030992145544706</v>
@@ -7108,16 +7108,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.4363715997134038</v>
+        <v>0.4363715997134037</v>
       </c>
       <c r="C260">
-        <v>0.8214666655697656</v>
+        <v>0.8214666655697654</v>
       </c>
       <c r="D260">
         <v>0.3656415426174546</v>
       </c>
       <c r="E260">
-        <v>0.7988772377957672</v>
+        <v>0.7988772377957674</v>
       </c>
       <c r="F260">
         <v>0.4062309844397247</v>
@@ -7137,13 +7137,13 @@
         <v>0.2720325973327962</v>
       </c>
       <c r="C261">
-        <v>0.8412800172153341</v>
+        <v>0.8412800172153339</v>
       </c>
       <c r="D261">
         <v>0.2279043427056445</v>
       </c>
       <c r="E261">
-        <v>0.8134552165773615</v>
+        <v>0.8134552165773614</v>
       </c>
       <c r="F261">
         <v>0.2486416536473897</v>
@@ -7152,7 +7152,7 @@
         <v>0.8108705707212978</v>
       </c>
       <c r="H261">
-        <v>0.8049375774922423</v>
+        <v>0.8049375774922424</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7160,22 +7160,22 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.4208230152018241</v>
+        <v>0.420823015201824</v>
       </c>
       <c r="C262">
         <v>0.8084567656091792</v>
       </c>
       <c r="D262">
-        <v>0.3960669824408739</v>
+        <v>0.396066982440874</v>
       </c>
       <c r="E262">
-        <v>0.7856627740194538</v>
+        <v>0.7856627740194537</v>
       </c>
       <c r="F262">
-        <v>0.4141243769942614</v>
+        <v>0.4141243769942613</v>
       </c>
       <c r="G262">
-        <v>0.7819171494400743</v>
+        <v>0.7819171494400741</v>
       </c>
       <c r="H262">
         <v>0.778172674569786</v>
@@ -7186,25 +7186,25 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.3948250551343271</v>
+        <v>0.394825055134327</v>
       </c>
       <c r="C263">
-        <v>0.91319667200236</v>
+        <v>0.9131966720023599</v>
       </c>
       <c r="D263">
-        <v>0.3740112619437381</v>
+        <v>0.3740112619437382</v>
       </c>
       <c r="E263">
-        <v>0.8849662294658733</v>
+        <v>0.8849662294658732</v>
       </c>
       <c r="F263">
-        <v>0.3917525336628399</v>
+        <v>0.3917525336628397</v>
       </c>
       <c r="G263">
         <v>0.8817909267769356</v>
       </c>
       <c r="H263">
-        <v>0.8760776543270231</v>
+        <v>0.876077654327023</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7215,22 +7215,22 @@
         <v>0.3567278510760536</v>
       </c>
       <c r="C264">
-        <v>0.8800346389114025</v>
+        <v>0.8800346389114024</v>
       </c>
       <c r="D264">
         <v>0.3390973638914564</v>
       </c>
       <c r="E264">
-        <v>0.852349219731293</v>
+        <v>0.8523492197312931</v>
       </c>
       <c r="F264">
         <v>0.3653638112216108</v>
       </c>
       <c r="G264">
-        <v>0.8492660559187484</v>
+        <v>0.8492660559187483</v>
       </c>
       <c r="H264">
-        <v>0.8436182125204265</v>
+        <v>0.8436182125204263</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7241,13 +7241,13 @@
         <v>0.3567278510760536</v>
       </c>
       <c r="C265">
-        <v>0.8800346389114025</v>
+        <v>0.8800346389114024</v>
       </c>
       <c r="D265">
         <v>0.3390973638914564</v>
       </c>
       <c r="E265">
-        <v>0.852349219731293</v>
+        <v>0.8523492197312931</v>
       </c>
       <c r="F265">
         <v>0.3653638112216108</v>
@@ -7273,7 +7273,7 @@
         <v>0.3223043990926497</v>
       </c>
       <c r="E266">
-        <v>0.9606503289509727</v>
+        <v>0.9606503289509726</v>
       </c>
       <c r="F266">
         <v>0.4017060615297219</v>
@@ -7282,7 +7282,7 @@
         <v>0.9542614424075949</v>
       </c>
       <c r="H266">
-        <v>0.9498882395487303</v>
+        <v>0.94988823954873</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7299,16 +7299,16 @@
         <v>0.3390973638914564</v>
       </c>
       <c r="E267">
-        <v>0.852349219731293</v>
+        <v>0.8523492197312932</v>
       </c>
       <c r="F267">
         <v>0.3653638112216108</v>
       </c>
       <c r="G267">
-        <v>0.8492660559187484</v>
+        <v>0.8492660559187483</v>
       </c>
       <c r="H267">
-        <v>0.8436182125204265</v>
+        <v>0.8436182125204263</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7331,7 +7331,7 @@
         <v>0.2486416536473897</v>
       </c>
       <c r="G268">
-        <v>0.8108705707212978</v>
+        <v>0.8108705707212976</v>
       </c>
       <c r="H268">
         <v>0.8049375774922424</v>
@@ -7351,16 +7351,16 @@
         <v>0.2279043427056445</v>
       </c>
       <c r="E269">
-        <v>0.8134552165773615</v>
+        <v>0.8134552165773614</v>
       </c>
       <c r="F269">
         <v>0.2486416536473897</v>
       </c>
       <c r="G269">
-        <v>0.8108705707212978</v>
+        <v>0.8108705707212976</v>
       </c>
       <c r="H269">
-        <v>0.8049375774922423</v>
+        <v>0.8049375774922425</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7371,7 +7371,7 @@
         <v>0.2649445255559652</v>
       </c>
       <c r="C270">
-        <v>0.9089021985231244</v>
+        <v>0.9089021985231241</v>
       </c>
       <c r="D270">
         <v>0.2945925319240529</v>
@@ -7394,7 +7394,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.3157287807578316</v>
+        <v>0.3157287807578315</v>
       </c>
       <c r="C271">
         <v>0.8156759446420567</v>
@@ -7409,7 +7409,7 @@
         <v>0.1950213832837919</v>
       </c>
       <c r="G271">
-        <v>0.7849438283082999</v>
+        <v>0.7849438283082998</v>
       </c>
       <c r="H271">
         <v>0.779960493594294</v>
@@ -7420,7 +7420,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.3157287807578316</v>
+        <v>0.3157287807578315</v>
       </c>
       <c r="C272">
         <v>0.8156759446420567</v>
@@ -7435,7 +7435,7 @@
         <v>0.1950213832837919</v>
       </c>
       <c r="G272">
-        <v>0.7849438283083</v>
+        <v>0.7849438283082999</v>
       </c>
       <c r="H272">
         <v>0.779960493594294</v>
@@ -7449,7 +7449,7 @@
         <v>0.2762717981165351</v>
       </c>
       <c r="C273">
-        <v>0.9387928138103676</v>
+        <v>0.9387928138103675</v>
       </c>
       <c r="D273">
         <v>0.2779927472752044</v>
@@ -7464,7 +7464,7 @@
         <v>0.9045322738121072</v>
       </c>
       <c r="H273">
-        <v>0.8978861966120049</v>
+        <v>0.8978861966120047</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7481,7 +7481,7 @@
         <v>0.2779927472752044</v>
       </c>
       <c r="E274">
-        <v>0.9078915681516703</v>
+        <v>0.9078915681516704</v>
       </c>
       <c r="F274">
         <v>0.2721767786696517</v>
@@ -7490,7 +7490,7 @@
         <v>0.9045322738121072</v>
       </c>
       <c r="H274">
-        <v>0.897886196612005</v>
+        <v>0.8978861966120047</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7507,16 +7507,16 @@
         <v>0.5864215676903634</v>
       </c>
       <c r="E275">
-        <v>0.6821055713409896</v>
+        <v>0.6821055713409895</v>
       </c>
       <c r="F275">
         <v>0.556362639668446</v>
       </c>
       <c r="G275">
-        <v>0.6838887593739347</v>
+        <v>0.6838887593739346</v>
       </c>
       <c r="H275">
-        <v>0.6801083035388</v>
+        <v>0.6801083035388001</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7527,13 +7527,13 @@
         <v>0.3804269590212734</v>
       </c>
       <c r="C276">
-        <v>0.7337727979645808</v>
+        <v>0.7337727979645809</v>
       </c>
       <c r="D276">
         <v>0.2385189726197286</v>
       </c>
       <c r="E276">
-        <v>0.7139165917932546</v>
+        <v>0.7139165917932547</v>
       </c>
       <c r="F276">
         <v>0.2962916040017179</v>
@@ -7559,7 +7559,7 @@
         <v>0.511700918433016</v>
       </c>
       <c r="E277">
-        <v>0.9010371938648943</v>
+        <v>0.9010371938648946</v>
       </c>
       <c r="F277">
         <v>0.5502517362301295</v>
@@ -7576,7 +7576,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.7686062539797465</v>
+        <v>0.7686062539797464</v>
       </c>
       <c r="C278">
         <v>1.036892422730713</v>
@@ -7588,7 +7588,7 @@
         <v>1.009949903512283</v>
       </c>
       <c r="F278">
-        <v>0.7080390846019662</v>
+        <v>0.7080390846019664</v>
       </c>
       <c r="G278">
         <v>1.005297416781285</v>
@@ -7608,7 +7608,7 @@
         <v>0.993707313172952</v>
       </c>
       <c r="D279">
-        <v>0.4558152530063865</v>
+        <v>0.4558152530063866</v>
       </c>
       <c r="E279">
         <v>0.9692389763712471</v>
@@ -7617,7 +7617,7 @@
         <v>0.7240240076526752</v>
       </c>
       <c r="G279">
-        <v>0.9635520089812939</v>
+        <v>0.9635520089812938</v>
       </c>
       <c r="H279">
         <v>0.961360803497922</v>
@@ -7634,19 +7634,19 @@
         <v>0.993707313172952</v>
       </c>
       <c r="D280">
-        <v>0.4558152530063865</v>
+        <v>0.4558152530063866</v>
       </c>
       <c r="E280">
-        <v>0.9692389763712471</v>
+        <v>0.9692389763712472</v>
       </c>
       <c r="F280">
-        <v>0.7240240076526753</v>
+        <v>0.7240240076526752</v>
       </c>
       <c r="G280">
-        <v>0.9635520089812939</v>
+        <v>0.9635520089812938</v>
       </c>
       <c r="H280">
-        <v>0.9613608034979221</v>
+        <v>0.9613608034979217</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7660,7 +7660,7 @@
         <v>0.7931268952835134</v>
       </c>
       <c r="D281">
-        <v>0.0818759300737253</v>
+        <v>0.08187593007372526</v>
       </c>
       <c r="E281">
         <v>0.770702788270668</v>
@@ -7669,7 +7669,7 @@
         <v>0.2347468561296664</v>
       </c>
       <c r="G281">
-        <v>0.7650359990173506</v>
+        <v>0.7650359990173505</v>
       </c>
       <c r="H281">
         <v>0.7609794590969459</v>
@@ -7680,13 +7680,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.3425411672272783</v>
+        <v>0.3425411672272782</v>
       </c>
       <c r="C282">
         <v>0.7344916550015257</v>
       </c>
       <c r="D282">
-        <v>0.2145276312079124</v>
+        <v>0.2145276312079123</v>
       </c>
       <c r="E282">
         <v>0.7140218324592466</v>
@@ -7698,7 +7698,7 @@
         <v>0.7095576705921637</v>
       </c>
       <c r="H282">
-        <v>0.7052132061133193</v>
+        <v>0.7052132061133194</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7706,13 +7706,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.3425411672272783</v>
+        <v>0.3425411672272782</v>
       </c>
       <c r="C283">
         <v>0.7344916550015258</v>
       </c>
       <c r="D283">
-        <v>0.2145276312079124</v>
+        <v>0.2145276312079123</v>
       </c>
       <c r="E283">
         <v>0.7140218324592464</v>
@@ -7738,7 +7738,7 @@
         <v>0.7344916550015257</v>
       </c>
       <c r="D284">
-        <v>0.2145276312079124</v>
+        <v>0.2145276312079123</v>
       </c>
       <c r="E284">
         <v>0.7140218324592464</v>
@@ -7750,7 +7750,7 @@
         <v>0.7095576705921637</v>
       </c>
       <c r="H284">
-        <v>0.7052132061133193</v>
+        <v>0.7052132061133194</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7761,22 +7761,22 @@
         <v>0.3804269590212735</v>
       </c>
       <c r="C285">
-        <v>0.7337727979645809</v>
+        <v>0.7337727979645811</v>
       </c>
       <c r="D285">
-        <v>0.2385189726197286</v>
+        <v>0.2385189726197285</v>
       </c>
       <c r="E285">
         <v>0.7139165917932546</v>
       </c>
       <c r="F285">
-        <v>0.296291604001718</v>
+        <v>0.2962916040017179</v>
       </c>
       <c r="G285">
         <v>0.7090132807894013</v>
       </c>
       <c r="H285">
-        <v>0.7050661929887727</v>
+        <v>0.7050661929887728</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7790,7 +7790,7 @@
         <v>0.993707313172952</v>
       </c>
       <c r="D286">
-        <v>0.4558152530063866</v>
+        <v>0.4558152530063867</v>
       </c>
       <c r="E286">
         <v>0.9692389763712471</v>
@@ -7802,7 +7802,7 @@
         <v>0.9635520089812937</v>
       </c>
       <c r="H286">
-        <v>0.961360803497922</v>
+        <v>0.9613608034979217</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7810,7 +7810,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.7103640929175982</v>
+        <v>0.7103640929175983</v>
       </c>
       <c r="C287">
         <v>1.038618993924446</v>
@@ -7836,7 +7836,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.4997556208338758</v>
+        <v>0.4997556208338757</v>
       </c>
       <c r="C288">
         <v>1.012568952974172</v>
@@ -7845,10 +7845,10 @@
         <v>0.5757763668478116</v>
       </c>
       <c r="E288">
-        <v>0.9856540047630116</v>
+        <v>0.9856540047630113</v>
       </c>
       <c r="F288">
-        <v>0.5943835276226762</v>
+        <v>0.5943835276226761</v>
       </c>
       <c r="G288">
         <v>0.9821381980788899</v>
@@ -7874,7 +7874,7 @@
         <v>1.053058232344865</v>
       </c>
       <c r="F289">
-        <v>0.8100983657243221</v>
+        <v>0.8100983657243219</v>
       </c>
       <c r="G289">
         <v>1.044652039988566</v>
@@ -7897,16 +7897,16 @@
         <v>0.6625600944939158</v>
       </c>
       <c r="E290">
-        <v>1.027606598602802</v>
+        <v>1.027606598602801</v>
       </c>
       <c r="F290">
-        <v>0.7084080068490993</v>
+        <v>0.7084080068490991</v>
       </c>
       <c r="G290">
         <v>1.022019366775451</v>
       </c>
       <c r="H290">
-        <v>1.016884451365693</v>
+        <v>1.016884451365692</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7914,7 +7914,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.4508805816432575</v>
+        <v>0.4508805816432574</v>
       </c>
       <c r="C291">
         <v>0.987342188466711</v>
@@ -7923,7 +7923,7 @@
         <v>0.5299535553127632</v>
       </c>
       <c r="E291">
-        <v>0.9599275763561295</v>
+        <v>0.9599275763561297</v>
       </c>
       <c r="F291">
         <v>0.5575285791216575</v>
@@ -7940,7 +7940,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.5666322707407208</v>
+        <v>0.5666322707407209</v>
       </c>
       <c r="C292">
         <v>1.008960350732596</v>
@@ -7949,16 +7949,16 @@
         <v>0.5657957815175279</v>
       </c>
       <c r="E292">
-        <v>0.98364001664768</v>
+        <v>0.9836400166476801</v>
       </c>
       <c r="F292">
-        <v>0.6329949246769533</v>
+        <v>0.6329949246769534</v>
       </c>
       <c r="G292">
         <v>0.9780032976586061</v>
       </c>
       <c r="H292">
-        <v>0.9742436016521511</v>
+        <v>0.9742436016521508</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7972,10 +7972,10 @@
         <v>1.012429939950909</v>
       </c>
       <c r="D293">
-        <v>0.6233908834831867</v>
+        <v>0.6233908834831868</v>
       </c>
       <c r="E293">
-        <v>0.9871932944209961</v>
+        <v>0.9871932944209962</v>
       </c>
       <c r="F293">
         <v>0.6652982179499826</v>
@@ -7992,7 +7992,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.5498526556488604</v>
+        <v>0.5498526556488603</v>
       </c>
       <c r="C294">
         <v>1.022383995054651</v>
@@ -8018,25 +8018,25 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.6992172339597256</v>
+        <v>0.6992172339597255</v>
       </c>
       <c r="C295">
-        <v>0.8088901942024795</v>
+        <v>0.8088901942024797</v>
       </c>
       <c r="D295">
-        <v>0.8449350019487506</v>
+        <v>0.8449350019487507</v>
       </c>
       <c r="E295">
-        <v>0.7961229164082314</v>
+        <v>0.7961229164082315</v>
       </c>
       <c r="F295">
         <v>0.7956562232142852</v>
       </c>
       <c r="G295">
-        <v>0.8017453662377821</v>
+        <v>0.801745366237782</v>
       </c>
       <c r="H295">
-        <v>0.7999863314768494</v>
+        <v>0.7999863314768493</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8050,13 +8050,13 @@
         <v>0.8388612964462744</v>
       </c>
       <c r="D296">
-        <v>0.9284294076141248</v>
+        <v>0.928429407614125</v>
       </c>
       <c r="E296">
         <v>0.8261030580129408</v>
       </c>
       <c r="F296">
-        <v>0.8642671504298245</v>
+        <v>0.8642671504298243</v>
       </c>
       <c r="G296">
         <v>0.8337383849247411</v>
@@ -8070,7 +8070,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.6782422151709691</v>
+        <v>0.6782422151709692</v>
       </c>
       <c r="C297">
         <v>0.9546941116565439</v>
@@ -8079,13 +8079,13 @@
         <v>0.8319797786753652</v>
       </c>
       <c r="E297">
-        <v>0.934499037132012</v>
+        <v>0.9344990371320119</v>
       </c>
       <c r="F297">
-        <v>0.7830715136146494</v>
+        <v>0.7830715136146493</v>
       </c>
       <c r="G297">
-        <v>0.9364426234445509</v>
+        <v>0.9364426234445508</v>
       </c>
       <c r="H297">
         <v>0.9314993784946616</v>
@@ -8096,13 +8096,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.6547340958218635</v>
+        <v>0.6547340958218637</v>
       </c>
       <c r="C298">
         <v>0.8148501094155874</v>
       </c>
       <c r="D298">
-        <v>0.8686497472434205</v>
+        <v>0.8686497472434206</v>
       </c>
       <c r="E298">
         <v>0.7984861356413634</v>
@@ -8111,7 +8111,7 @@
         <v>0.8057873927272737</v>
       </c>
       <c r="G298">
-        <v>0.8090444766399294</v>
+        <v>0.8090444766399293</v>
       </c>
       <c r="H298">
         <v>0.8054179232333782</v>
@@ -8134,7 +8134,7 @@
         <v>0.8976614362833372</v>
       </c>
       <c r="F299">
-        <v>0.729696993132513</v>
+        <v>0.7296969931325128</v>
       </c>
       <c r="G299">
         <v>0.9003349184701406</v>
@@ -8151,13 +8151,13 @@
         <v>0.6992172339597256</v>
       </c>
       <c r="C300">
-        <v>0.8088901942024795</v>
+        <v>0.8088901942024797</v>
       </c>
       <c r="D300">
-        <v>0.8449350019487506</v>
+        <v>0.8449350019487508</v>
       </c>
       <c r="E300">
-        <v>0.7961229164082313</v>
+        <v>0.7961229164082315</v>
       </c>
       <c r="F300">
         <v>0.795656223214285</v>
@@ -8174,10 +8174,10 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.7119869809239936</v>
+        <v>0.7119869809239935</v>
       </c>
       <c r="C301">
-        <v>0.9363943071691251</v>
+        <v>0.9363943071691249</v>
       </c>
       <c r="D301">
         <v>0.8617551578000641</v>
@@ -8186,7 +8186,7 @@
         <v>0.9183883871694452</v>
       </c>
       <c r="F301">
-        <v>0.8122553228986102</v>
+        <v>0.8122553228986101</v>
       </c>
       <c r="G301">
         <v>0.9212415992381781</v>
@@ -8200,7 +8200,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.5836854588172359</v>
+        <v>0.583685458817236</v>
       </c>
       <c r="C302">
         <v>1.023293998459251</v>
@@ -8238,7 +8238,7 @@
         <v>1.009842397121543</v>
       </c>
       <c r="F303">
-        <v>0.6515724639706755</v>
+        <v>0.6515724639706756</v>
       </c>
       <c r="G303">
         <v>1.009593225108014</v>
@@ -8255,22 +8255,22 @@
         <v>0.6388727205901419</v>
       </c>
       <c r="C304">
-        <v>0.8813116063758423</v>
+        <v>0.881311606375842</v>
       </c>
       <c r="D304">
         <v>0.6925329878120966</v>
       </c>
       <c r="E304">
-        <v>0.8625313082766938</v>
+        <v>0.8625313082766939</v>
       </c>
       <c r="F304">
-        <v>0.6757988049712363</v>
+        <v>0.6757988049712362</v>
       </c>
       <c r="G304">
         <v>0.860723726193799</v>
       </c>
       <c r="H304">
-        <v>0.8576201633022795</v>
+        <v>0.8576201633022794</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8281,13 +8281,13 @@
         <v>0.638872720590142</v>
       </c>
       <c r="C305">
-        <v>0.8813116063758423</v>
+        <v>0.881311606375842</v>
       </c>
       <c r="D305">
         <v>0.6925329878120966</v>
       </c>
       <c r="E305">
-        <v>0.8625313082766938</v>
+        <v>0.8625313082766939</v>
       </c>
       <c r="F305">
         <v>0.6757988049712363</v>
@@ -8296,7 +8296,7 @@
         <v>0.860723726193799</v>
       </c>
       <c r="H305">
-        <v>0.8576201633022795</v>
+        <v>0.8576201633022794</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8304,7 +8304,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.7129313311586543</v>
+        <v>0.712931331158654</v>
       </c>
       <c r="C306">
         <v>0.8344102567930208</v>
@@ -8313,16 +8313,16 @@
         <v>0.6427280808746105</v>
       </c>
       <c r="E306">
-        <v>0.821512280261528</v>
+        <v>0.8215122802615279</v>
       </c>
       <c r="F306">
-        <v>0.6772140343107502</v>
+        <v>0.6772140343107503</v>
       </c>
       <c r="G306">
         <v>0.8169159760825637</v>
       </c>
       <c r="H306">
-        <v>0.8173683236318934</v>
+        <v>0.8173683236318933</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8330,16 +8330,16 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.6388727205901421</v>
+        <v>0.638872720590142</v>
       </c>
       <c r="C307">
-        <v>0.8813116063758424</v>
+        <v>0.8813116063758423</v>
       </c>
       <c r="D307">
-        <v>0.6925329878120966</v>
+        <v>0.6925329878120968</v>
       </c>
       <c r="E307">
-        <v>0.8625313082766938</v>
+        <v>0.862531308276694</v>
       </c>
       <c r="F307">
         <v>0.6757988049712363</v>
@@ -8348,7 +8348,7 @@
         <v>0.8607237261937991</v>
       </c>
       <c r="H307">
-        <v>0.8576201633022795</v>
+        <v>0.8576201633022794</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8356,10 +8356,10 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.6650053230018601</v>
+        <v>0.6650053230018598</v>
       </c>
       <c r="C308">
-        <v>0.9523635791996569</v>
+        <v>0.9523635791996568</v>
       </c>
       <c r="D308">
         <v>0.5937724457586863</v>
@@ -8371,7 +8371,7 @@
         <v>0.6355298732368531</v>
       </c>
       <c r="G308">
-        <v>0.9261723686274895</v>
+        <v>0.9261723686274898</v>
       </c>
       <c r="H308">
         <v>0.9222722551024088</v>
@@ -8382,7 +8382,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.7129313311586543</v>
+        <v>0.712931331158654</v>
       </c>
       <c r="C309">
         <v>0.8344102567930208</v>
@@ -8391,10 +8391,10 @@
         <v>0.6427280808746105</v>
       </c>
       <c r="E309">
-        <v>0.821512280261528</v>
+        <v>0.8215122802615279</v>
       </c>
       <c r="F309">
-        <v>0.6772140343107502</v>
+        <v>0.6772140343107503</v>
       </c>
       <c r="G309">
         <v>0.8169159760825637</v>
@@ -8414,7 +8414,7 @@
         <v>0.9950301090621768</v>
       </c>
       <c r="D310">
-        <v>0.6391922958558357</v>
+        <v>0.6391922958558358</v>
       </c>
       <c r="E310">
         <v>0.9689142835353095</v>
@@ -8423,10 +8423,10 @@
         <v>0.6313604635217952</v>
       </c>
       <c r="G310">
-        <v>0.9670608475637803</v>
+        <v>0.9670608475637805</v>
       </c>
       <c r="H310">
-        <v>0.9611775061466515</v>
+        <v>0.9611775061466517</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8434,25 +8434,25 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.3737791669199273</v>
+        <v>0.3737791669199272</v>
       </c>
       <c r="C311">
-        <v>0.807596570032006</v>
+        <v>0.8075965700320061</v>
       </c>
       <c r="D311">
         <v>0.2517215603488203</v>
       </c>
       <c r="E311">
-        <v>0.7831565523327901</v>
+        <v>0.7831565523327902</v>
       </c>
       <c r="F311">
         <v>0.3231679864523245</v>
       </c>
       <c r="G311">
-        <v>0.7812135869219143</v>
+        <v>0.7812135869219142</v>
       </c>
       <c r="H311">
-        <v>0.7761728026761856</v>
+        <v>0.7761728026761854</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8460,10 +8460,10 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.4536608612235345</v>
+        <v>0.4536608612235344</v>
       </c>
       <c r="C312">
-        <v>0.5661539982174756</v>
+        <v>0.5661539982174758</v>
       </c>
       <c r="D312">
         <v>0.2543185347290104</v>
@@ -8472,10 +8472,10 @@
         <v>0.5764419686500095</v>
       </c>
       <c r="F312">
-        <v>0.352447274275524</v>
+        <v>0.3524472742755241</v>
       </c>
       <c r="G312">
-        <v>0.5752302050518081</v>
+        <v>0.575230205051808</v>
       </c>
       <c r="H312">
         <v>0.5834283360923075</v>
@@ -8489,22 +8489,22 @@
         <v>0.3737791669199273</v>
       </c>
       <c r="C313">
-        <v>0.807596570032006</v>
+        <v>0.8075965700320062</v>
       </c>
       <c r="D313">
         <v>0.2517215603488202</v>
       </c>
       <c r="E313">
-        <v>0.7831565523327902</v>
+        <v>0.7831565523327901</v>
       </c>
       <c r="F313">
         <v>0.3231679864523245</v>
       </c>
       <c r="G313">
-        <v>0.7812135869219144</v>
+        <v>0.7812135869219142</v>
       </c>
       <c r="H313">
-        <v>0.7761728026761856</v>
+        <v>0.7761728026761854</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8512,25 +8512,25 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.3737791669199273</v>
+        <v>0.3737791669199272</v>
       </c>
       <c r="C314">
-        <v>0.807596570032006</v>
+        <v>0.8075965700320061</v>
       </c>
       <c r="D314">
-        <v>0.2517215603488202</v>
+        <v>0.2517215603488203</v>
       </c>
       <c r="E314">
-        <v>0.7831565523327902</v>
+        <v>0.7831565523327901</v>
       </c>
       <c r="F314">
         <v>0.3231679864523245</v>
       </c>
       <c r="G314">
-        <v>0.7812135869219143</v>
+        <v>0.7812135869219142</v>
       </c>
       <c r="H314">
-        <v>0.7761728026761855</v>
+        <v>0.7761728026761854</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8553,7 +8553,7 @@
         <v>1.037821168865209</v>
       </c>
       <c r="G315">
-        <v>0.9836901617996068</v>
+        <v>0.9836901617996067</v>
       </c>
       <c r="H315">
         <v>0.9846150392035971</v>
@@ -8564,7 +8564,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1.148443006699093</v>
+        <v>1.148443006699094</v>
       </c>
       <c r="C316">
         <v>0.9696708017141433</v>
@@ -8573,16 +8573,16 @@
         <v>1.342971025778988</v>
       </c>
       <c r="E316">
-        <v>0.971005312893031</v>
+        <v>0.9710053128930313</v>
       </c>
       <c r="F316">
         <v>1.265173489731615</v>
       </c>
       <c r="G316">
-        <v>0.9718328311584176</v>
+        <v>0.9718328311584175</v>
       </c>
       <c r="H316">
-        <v>0.9721906173548414</v>
+        <v>0.9721906173548412</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8616,7 +8616,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>1.086034776198854</v>
+        <v>1.086034776198855</v>
       </c>
       <c r="C318">
         <v>0.9470654829316758</v>
@@ -8634,7 +8634,7 @@
         <v>0.9425555552220113</v>
       </c>
       <c r="H318">
-        <v>0.9456965246823344</v>
+        <v>0.9456965246823343</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8657,10 +8657,10 @@
         <v>1.069071366909061</v>
       </c>
       <c r="G319">
-        <v>0.8907691898868271</v>
+        <v>0.890769189886827</v>
       </c>
       <c r="H319">
-        <v>0.8978983926093378</v>
+        <v>0.8978983926093377</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8677,16 +8677,16 @@
         <v>1.129128017051368</v>
       </c>
       <c r="E320">
-        <v>0.9170715818642514</v>
+        <v>0.9170715818642513</v>
       </c>
       <c r="F320">
         <v>1.088240257891917</v>
       </c>
       <c r="G320">
-        <v>0.9108808007733019</v>
+        <v>0.9108808007733016</v>
       </c>
       <c r="H320">
-        <v>0.916312680083356</v>
+        <v>0.9163126800833559</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8697,19 +8697,19 @@
         <v>1.072491757986415</v>
       </c>
       <c r="C321">
-        <v>0.9386303635959196</v>
+        <v>0.9386303635959194</v>
       </c>
       <c r="D321">
         <v>1.164561870817731</v>
       </c>
       <c r="E321">
-        <v>0.9387817834049724</v>
+        <v>0.9387817834049722</v>
       </c>
       <c r="F321">
         <v>1.125444893973588</v>
       </c>
       <c r="G321">
-        <v>0.931803819872167</v>
+        <v>0.9318038198721669</v>
       </c>
       <c r="H321">
         <v>0.9363891072978936</v>
@@ -8735,7 +8735,7 @@
         <v>0.873262833170359</v>
       </c>
       <c r="G322">
-        <v>1.060009030143416</v>
+        <v>1.060009030143417</v>
       </c>
       <c r="H322">
         <v>1.055294405323856</v>
@@ -8755,7 +8755,7 @@
         <v>1.068237298069172</v>
       </c>
       <c r="E323">
-        <v>0.9099655171371454</v>
+        <v>0.909965517137145</v>
       </c>
       <c r="F323">
         <v>1.046849996159232</v>
@@ -8772,7 +8772,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>1.01648629897908</v>
+        <v>1.016486298979081</v>
       </c>
       <c r="C324">
         <v>0.91112137369434</v>
@@ -8787,10 +8787,10 @@
         <v>1.046849996159232</v>
       </c>
       <c r="G324">
-        <v>0.9027093724919362</v>
+        <v>0.9027093724919359</v>
       </c>
       <c r="H324">
-        <v>0.906999042204749</v>
+        <v>0.9069990422047489</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8807,16 +8807,16 @@
         <v>1.068237298069173</v>
       </c>
       <c r="E325">
-        <v>0.9099655171371452</v>
+        <v>0.909965517137145</v>
       </c>
       <c r="F325">
         <v>1.046849996159232</v>
       </c>
       <c r="G325">
-        <v>0.9027093724919362</v>
+        <v>0.9027093724919359</v>
       </c>
       <c r="H325">
-        <v>0.906999042204749</v>
+        <v>0.9069990422047489</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8827,7 +8827,7 @@
         <v>1.13609103043328</v>
       </c>
       <c r="C326">
-        <v>0.9473880906614696</v>
+        <v>0.9473880906614691</v>
       </c>
       <c r="D326">
         <v>1.107767931461186</v>
@@ -8839,7 +8839,7 @@
         <v>1.100318717101497</v>
       </c>
       <c r="G326">
-        <v>0.9405979576174349</v>
+        <v>0.940597957617435</v>
       </c>
       <c r="H326">
         <v>0.9457339583571264</v>
@@ -8862,7 +8862,7 @@
         <v>1.030733821135136</v>
       </c>
       <c r="F327">
-        <v>0.7659881586582932</v>
+        <v>0.7659881586582933</v>
       </c>
       <c r="G327">
         <v>1.022879416229346</v>
@@ -8876,7 +8876,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.7896015354137937</v>
+        <v>0.7896015354137939</v>
       </c>
       <c r="C328">
         <v>1.065701714880446</v>
@@ -8920,7 +8920,7 @@
         <v>1.022285187060079</v>
       </c>
       <c r="H329">
-        <v>1.020166827980207</v>
+        <v>1.020166827980206</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8934,13 +8934,13 @@
         <v>1.065701714880446</v>
       </c>
       <c r="D330">
-        <v>0.5949251690792831</v>
+        <v>0.5949251690792832</v>
       </c>
       <c r="E330">
         <v>1.043111674154742</v>
       </c>
       <c r="F330">
-        <v>0.7283632443046714</v>
+        <v>0.7283632443046715</v>
       </c>
       <c r="G330">
         <v>1.034197289500455</v>
@@ -8954,13 +8954,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.8727773758260147</v>
+        <v>0.8727773758260148</v>
       </c>
       <c r="C331">
-        <v>0.9604745755478152</v>
+        <v>0.9604745755478151</v>
       </c>
       <c r="D331">
-        <v>0.7117952924777583</v>
+        <v>0.7117952924777584</v>
       </c>
       <c r="E331">
         <v>0.9481267880199871</v>
@@ -8986,13 +8986,13 @@
         <v>1.093100359825403</v>
       </c>
       <c r="D332">
-        <v>0.7313037451507404</v>
+        <v>0.7313037451507405</v>
       </c>
       <c r="E332">
         <v>1.074247236777194</v>
       </c>
       <c r="F332">
-        <v>0.8554415508730465</v>
+        <v>0.8554415508730467</v>
       </c>
       <c r="G332">
         <v>1.065076066619361</v>
@@ -9006,19 +9006,19 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.998459817177742</v>
+        <v>0.9984598171777419</v>
       </c>
       <c r="C333">
         <v>1.038397410408535</v>
       </c>
       <c r="D333">
-        <v>0.9674656203321679</v>
+        <v>0.9674656203321681</v>
       </c>
       <c r="E333">
         <v>1.030752296183311</v>
       </c>
       <c r="F333">
-        <v>0.9741763716825931</v>
+        <v>0.9741763716825933</v>
       </c>
       <c r="G333">
         <v>1.023913526661529</v>
@@ -9038,13 +9038,13 @@
         <v>1.140849207937043</v>
       </c>
       <c r="D334">
-        <v>0.8713995925712599</v>
+        <v>0.87139959257126</v>
       </c>
       <c r="E334">
         <v>1.12364824386657</v>
       </c>
       <c r="F334">
-        <v>0.9522777768487685</v>
+        <v>0.9522777768487686</v>
       </c>
       <c r="G334">
         <v>1.115156390998469</v>
@@ -9058,7 +9058,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.9473482621211888</v>
+        <v>0.9473482621211893</v>
       </c>
       <c r="C335">
         <v>1.1293553836303</v>
@@ -9084,7 +9084,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.8560072840041235</v>
+        <v>0.8560072840041237</v>
       </c>
       <c r="C336">
         <v>1.083227121276858</v>
@@ -9122,13 +9122,13 @@
         <v>0.610139731669698</v>
       </c>
       <c r="F337">
-        <v>0.5559237529811617</v>
+        <v>0.5559237529811616</v>
       </c>
       <c r="G337">
-        <v>0.6130301314918528</v>
+        <v>0.6130301314918529</v>
       </c>
       <c r="H337">
-        <v>0.6100255590934658</v>
+        <v>0.6100255590934657</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9139,16 +9139,16 @@
         <v>0.5138908893753997</v>
       </c>
       <c r="C338">
-        <v>0.5994075850548775</v>
+        <v>0.5994075850548773</v>
       </c>
       <c r="D338">
-        <v>0.7107853876106441</v>
+        <v>0.7107853876106439</v>
       </c>
       <c r="E338">
-        <v>0.5873882123572043</v>
+        <v>0.5873882123572042</v>
       </c>
       <c r="F338">
-        <v>0.6332184658471748</v>
+        <v>0.6332184658471747</v>
       </c>
       <c r="G338">
         <v>0.6021078102620686</v>
@@ -9168,7 +9168,7 @@
         <v>0.6218771758552318</v>
       </c>
       <c r="D339">
-        <v>0.5945528107719449</v>
+        <v>0.594552810771945</v>
       </c>
       <c r="E339">
         <v>0.610139731669698</v>
@@ -9180,7 +9180,7 @@
         <v>0.6130301314918529</v>
       </c>
       <c r="H339">
-        <v>0.6100255590934658</v>
+        <v>0.6100255590934657</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9194,13 +9194,13 @@
         <v>0.6805029854675312</v>
       </c>
       <c r="D340">
-        <v>0.4559238985979915</v>
+        <v>0.4559238985979914</v>
       </c>
       <c r="E340">
         <v>0.6635280897520982</v>
       </c>
       <c r="F340">
-        <v>0.4345618973106103</v>
+        <v>0.4345618973106102</v>
       </c>
       <c r="G340">
         <v>0.6641742515235409</v>
@@ -9220,13 +9220,13 @@
         <v>0.6696749701336936</v>
       </c>
       <c r="D341">
-        <v>0.5014918111235199</v>
+        <v>0.5014918111235198</v>
       </c>
       <c r="E341">
-        <v>0.6530267462553061</v>
+        <v>0.653026746255306</v>
       </c>
       <c r="F341">
-        <v>0.470208566264101</v>
+        <v>0.4702085662641009</v>
       </c>
       <c r="G341">
         <v>0.6554887754984429</v>
@@ -9240,10 +9240,10 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.4636715430193322</v>
+        <v>0.4636715430193323</v>
       </c>
       <c r="C342">
-        <v>0.7545475802459733</v>
+        <v>0.7545475802459731</v>
       </c>
       <c r="D342">
         <v>0.4886015718582467</v>
@@ -9252,7 +9252,7 @@
         <v>0.7344045264299407</v>
       </c>
       <c r="F342">
-        <v>0.4721802028821035</v>
+        <v>0.4721802028821034</v>
       </c>
       <c r="G342">
         <v>0.7353384604279998</v>
@@ -9266,13 +9266,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.4636715430193322</v>
+        <v>0.4636715430193323</v>
       </c>
       <c r="C343">
-        <v>0.7545475802459733</v>
+        <v>0.7545475802459732</v>
       </c>
       <c r="D343">
-        <v>0.4886015718582468</v>
+        <v>0.4886015718582467</v>
       </c>
       <c r="E343">
         <v>0.7344045264299407</v>
@@ -9281,7 +9281,7 @@
         <v>0.4721802028821035</v>
       </c>
       <c r="G343">
-        <v>0.7353384604279997</v>
+        <v>0.7353384604279998</v>
       </c>
       <c r="H343">
         <v>0.730420232606756</v>
@@ -9301,13 +9301,13 @@
         <v>0.4559238985979914</v>
       </c>
       <c r="E344">
-        <v>0.6635280897520983</v>
+        <v>0.6635280897520982</v>
       </c>
       <c r="F344">
-        <v>0.4345618973106103</v>
+        <v>0.4345618973106102</v>
       </c>
       <c r="G344">
-        <v>0.664174251523541</v>
+        <v>0.6641742515235409</v>
       </c>
       <c r="H344">
         <v>0.6597093263856803</v>
@@ -9327,16 +9327,16 @@
         <v>0.316863134044059</v>
       </c>
       <c r="E345">
-        <v>0.5907345643997751</v>
+        <v>0.590734564399775</v>
       </c>
       <c r="F345">
         <v>0.310427198350539</v>
       </c>
       <c r="G345">
-        <v>0.5900861660958386</v>
+        <v>0.5900861660958385</v>
       </c>
       <c r="H345">
-        <v>0.586138031861721</v>
+        <v>0.5861380318617211</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9347,22 +9347,22 @@
         <v>0.3675714718018984</v>
       </c>
       <c r="C346">
-        <v>0.6060819854835171</v>
+        <v>0.606081985483517</v>
       </c>
       <c r="D346">
         <v>0.316863134044059</v>
       </c>
       <c r="E346">
-        <v>0.590734564399775</v>
+        <v>0.5907345643997749</v>
       </c>
       <c r="F346">
-        <v>0.310427198350539</v>
+        <v>0.3104271983505389</v>
       </c>
       <c r="G346">
-        <v>0.5900861660958385</v>
+        <v>0.5900861660958384</v>
       </c>
       <c r="H346">
-        <v>0.586138031861721</v>
+        <v>0.5861380318617211</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9373,22 +9373,22 @@
         <v>0.3675714718018984</v>
       </c>
       <c r="C347">
-        <v>0.6060819854835171</v>
+        <v>0.606081985483517</v>
       </c>
       <c r="D347">
         <v>0.316863134044059</v>
       </c>
       <c r="E347">
-        <v>0.5907345643997751</v>
+        <v>0.590734564399775</v>
       </c>
       <c r="F347">
         <v>0.310427198350539</v>
       </c>
       <c r="G347">
-        <v>0.5900861660958386</v>
+        <v>0.5900861660958385</v>
       </c>
       <c r="H347">
-        <v>0.586138031861721</v>
+        <v>0.5861380318617209</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>0.6927291374614357</v>
       </c>
       <c r="H348">
-        <v>0.6901927016901328</v>
+        <v>0.6901927016901327</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>0.6927291374614357</v>
       </c>
       <c r="H349">
-        <v>0.6901927016901328</v>
+        <v>0.6901927016901326</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9463,7 +9463,7 @@
         <v>0.4341119334078969</v>
       </c>
       <c r="G350">
-        <v>0.6927291374614358</v>
+        <v>0.6927291374614357</v>
       </c>
       <c r="H350">
         <v>0.6901927016901328</v>
@@ -9489,7 +9489,7 @@
         <v>0.2428951305686289</v>
       </c>
       <c r="G351">
-        <v>0.5435096978362923</v>
+        <v>0.5435096978362924</v>
       </c>
       <c r="H351">
         <v>0.539815685799198</v>
@@ -9509,16 +9509,16 @@
         <v>0.2530497570959827</v>
       </c>
       <c r="E352">
-        <v>0.5446186514333315</v>
+        <v>0.5446186514333317</v>
       </c>
       <c r="F352">
         <v>0.2428951305686289</v>
       </c>
       <c r="G352">
-        <v>0.5435096978362923</v>
+        <v>0.5435096978362924</v>
       </c>
       <c r="H352">
-        <v>0.539815685799198</v>
+        <v>0.5398156857991979</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9535,16 +9535,16 @@
         <v>0.5612211829594242</v>
       </c>
       <c r="E353">
-        <v>0.8409593047599656</v>
+        <v>0.8409593047599655</v>
       </c>
       <c r="F353">
         <v>0.6465446630642795</v>
       </c>
       <c r="G353">
-        <v>0.8336706470083546</v>
+        <v>0.8336706470083545</v>
       </c>
       <c r="H353">
-        <v>0.8307670518575559</v>
+        <v>0.8307670518575558</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9558,7 +9558,7 @@
         <v>0.7675624081651803</v>
       </c>
       <c r="D354">
-        <v>0.4501714825701371</v>
+        <v>0.450171482570137</v>
       </c>
       <c r="E354">
         <v>0.7517616000433854</v>
@@ -9567,7 +9567,7 @@
         <v>0.5841029663672075</v>
       </c>
       <c r="G354">
-        <v>0.7433939784736473</v>
+        <v>0.7433939784736474</v>
       </c>
       <c r="H354">
         <v>0.7419077485187192</v>
@@ -9587,7 +9587,7 @@
         <v>0.5159718696273251</v>
       </c>
       <c r="E355">
-        <v>0.8530155593826685</v>
+        <v>0.8530155593826684</v>
       </c>
       <c r="F355">
         <v>0.6277273300622594</v>
@@ -9596,7 +9596,7 @@
         <v>0.8456994452333882</v>
       </c>
       <c r="H355">
-        <v>0.842195709813527</v>
+        <v>0.8421957098135269</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9619,7 +9619,7 @@
         <v>0.5053377840587948</v>
       </c>
       <c r="G356">
-        <v>0.6944570902094163</v>
+        <v>0.6944570902094164</v>
       </c>
       <c r="H356">
         <v>0.6903757309504583</v>
@@ -9636,7 +9636,7 @@
         <v>0.7152939203364015</v>
       </c>
       <c r="D357">
-        <v>0.5102268009135246</v>
+        <v>0.5102268009135245</v>
       </c>
       <c r="E357">
         <v>0.6990267922231006</v>
@@ -9645,7 +9645,7 @@
         <v>0.5053377840587948</v>
       </c>
       <c r="G357">
-        <v>0.6944570902094163</v>
+        <v>0.6944570902094164</v>
       </c>
       <c r="H357">
         <v>0.6903757309504583</v>
@@ -9662,7 +9662,7 @@
         <v>0.7152939203364015</v>
       </c>
       <c r="D358">
-        <v>0.5102268009135246</v>
+        <v>0.5102268009135245</v>
       </c>
       <c r="E358">
         <v>0.6990267922231006</v>
@@ -9671,7 +9671,7 @@
         <v>0.5053377840587948</v>
       </c>
       <c r="G358">
-        <v>0.6944570902094162</v>
+        <v>0.6944570902094163</v>
       </c>
       <c r="H358">
         <v>0.6903757309504583</v>
@@ -9723,7 +9723,7 @@
         <v>0.2489353909556875</v>
       </c>
       <c r="G360">
-        <v>0.5655719735991765</v>
+        <v>0.5655719735991767</v>
       </c>
       <c r="H360">
         <v>0.5625670303600466</v>
@@ -9734,7 +9734,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.511464117465935</v>
+        <v>0.5114641174659351</v>
       </c>
       <c r="C361">
         <v>1.052504433331544</v>
@@ -9772,7 +9772,7 @@
         <v>1.023347267883947</v>
       </c>
       <c r="F362">
-        <v>0.4757822276139663</v>
+        <v>0.4757822276139664</v>
       </c>
       <c r="G362">
         <v>1.018830626619252</v>
@@ -9786,7 +9786,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.5038519720958171</v>
+        <v>0.5038519720958172</v>
       </c>
       <c r="C363">
         <v>1.013145104313884</v>
@@ -9804,7 +9804,7 @@
         <v>0.9793730414801732</v>
       </c>
       <c r="H363">
-        <v>0.9761373720551454</v>
+        <v>0.9761373720551453</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9818,13 +9818,13 @@
         <v>1.044154384504229</v>
       </c>
       <c r="D364">
-        <v>0.702380951926142</v>
+        <v>0.7023809519261419</v>
       </c>
       <c r="E364">
         <v>1.013705660451959</v>
       </c>
       <c r="F364">
-        <v>0.6756325048024987</v>
+        <v>0.6756325048024988</v>
       </c>
       <c r="G364">
         <v>1.016737368095026</v>
@@ -9844,13 +9844,13 @@
         <v>1.044154384504229</v>
       </c>
       <c r="D365">
-        <v>0.702380951926142</v>
+        <v>0.7023809519261419</v>
       </c>
       <c r="E365">
         <v>1.013705660451959</v>
       </c>
       <c r="F365">
-        <v>0.6756325048024987</v>
+        <v>0.6756325048024988</v>
       </c>
       <c r="G365">
         <v>1.016737368095026</v>
@@ -9867,22 +9867,22 @@
         <v>0.4496478671676492</v>
       </c>
       <c r="C366">
-        <v>0.9926030163513181</v>
+        <v>0.9926030163513179</v>
       </c>
       <c r="D366">
         <v>0.4271715337203045</v>
       </c>
       <c r="E366">
-        <v>0.9614527798083927</v>
+        <v>0.9614527798083926</v>
       </c>
       <c r="F366">
-        <v>0.4593196743277891</v>
+        <v>0.4593196743277893</v>
       </c>
       <c r="G366">
         <v>0.9604757924833153</v>
       </c>
       <c r="H366">
-        <v>0.9532055193737002</v>
+        <v>0.9532055193737</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9899,10 +9899,10 @@
         <v>0.4271715337203045</v>
       </c>
       <c r="E367">
-        <v>0.9614527798083926</v>
+        <v>0.9614527798083925</v>
       </c>
       <c r="F367">
-        <v>0.4593196743277891</v>
+        <v>0.4593196743277893</v>
       </c>
       <c r="G367">
         <v>0.960475792483315</v>
@@ -9922,7 +9922,7 @@
         <v>0.998040825400893</v>
       </c>
       <c r="D368">
-        <v>0.5602301006589672</v>
+        <v>0.5602301006589674</v>
       </c>
       <c r="E368">
         <v>0.9675877703754698</v>
@@ -9945,22 +9945,22 @@
         <v>0.4496478671676492</v>
       </c>
       <c r="C369">
-        <v>0.9926030163513181</v>
+        <v>0.9926030163513179</v>
       </c>
       <c r="D369">
         <v>0.4271715337203045</v>
       </c>
       <c r="E369">
-        <v>0.9614527798083926</v>
+        <v>0.9614527798083925</v>
       </c>
       <c r="F369">
-        <v>0.4593196743277892</v>
+        <v>0.4593196743277893</v>
       </c>
       <c r="G369">
         <v>0.9604757924833153</v>
       </c>
       <c r="H369">
-        <v>0.9532055193737001</v>
+        <v>0.9532055193737</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -9968,22 +9968,22 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.4387086721902797</v>
+        <v>0.4387086721902796</v>
       </c>
       <c r="C370">
-        <v>0.9519330064871599</v>
+        <v>0.9519330064871601</v>
       </c>
       <c r="D370">
         <v>0.2405565514526135</v>
       </c>
       <c r="E370">
-        <v>0.922447087415717</v>
+        <v>0.9224470874157169</v>
       </c>
       <c r="F370">
         <v>0.3059345292397446</v>
       </c>
       <c r="G370">
-        <v>0.9176527114053591</v>
+        <v>0.9176527114053592</v>
       </c>
       <c r="H370">
         <v>0.9118263660990596</v>
@@ -9994,16 +9994,16 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.4387086721902797</v>
+        <v>0.4387086721902796</v>
       </c>
       <c r="C371">
-        <v>0.9519330064871598</v>
+        <v>0.9519330064871601</v>
       </c>
       <c r="D371">
         <v>0.2405565514526135</v>
       </c>
       <c r="E371">
-        <v>0.922447087415717</v>
+        <v>0.9224470874157169</v>
       </c>
       <c r="F371">
         <v>0.3059345292397446</v>
@@ -10020,16 +10020,16 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.4387086721902798</v>
+        <v>0.4387086721902796</v>
       </c>
       <c r="C372">
-        <v>0.9519330064871598</v>
+        <v>0.9519330064871599</v>
       </c>
       <c r="D372">
         <v>0.2405565514526135</v>
       </c>
       <c r="E372">
-        <v>0.922447087415717</v>
+        <v>0.9224470874157168</v>
       </c>
       <c r="F372">
         <v>0.3059345292397446</v>
@@ -10038,7 +10038,7 @@
         <v>0.9176527114053591</v>
       </c>
       <c r="H372">
-        <v>0.9118263660990595</v>
+        <v>0.9118263660990596</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10058,7 +10058,7 @@
         <v>0.8948001423267522</v>
       </c>
       <c r="F373">
-        <v>0.7082872820273931</v>
+        <v>0.708287282027393</v>
       </c>
       <c r="G373">
         <v>0.8950785940630754</v>
@@ -10072,7 +10072,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.6127512866034021</v>
+        <v>0.6127512866034019</v>
       </c>
       <c r="C374">
         <v>0.8395918613161562</v>
@@ -10081,10 +10081,10 @@
         <v>0.5315345249023824</v>
       </c>
       <c r="E374">
-        <v>0.8187813803578496</v>
+        <v>0.8187813803578494</v>
       </c>
       <c r="F374">
-        <v>0.5689016148468827</v>
+        <v>0.5689016148468826</v>
       </c>
       <c r="G374">
         <v>0.8179292743095048</v>
@@ -10098,25 +10098,25 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.7200329275216396</v>
+        <v>0.7200329275216395</v>
       </c>
       <c r="C375">
         <v>0.9307851074881455</v>
       </c>
       <c r="D375">
-        <v>0.598955836128602</v>
+        <v>0.5989558361286021</v>
       </c>
       <c r="E375">
-        <v>0.9073628756703292</v>
+        <v>0.9073628756703291</v>
       </c>
       <c r="F375">
-        <v>0.6642552290275532</v>
+        <v>0.6642552290275531</v>
       </c>
       <c r="G375">
         <v>0.9061275472497031</v>
       </c>
       <c r="H375">
-        <v>0.9014915544772932</v>
+        <v>0.9014915544772931</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10127,7 +10127,7 @@
         <v>0.6079283634646986</v>
       </c>
       <c r="C376">
-        <v>0.8664099246061394</v>
+        <v>0.8664099246061395</v>
       </c>
       <c r="D376">
         <v>0.486059400914199</v>
@@ -10136,10 +10136,10 @@
         <v>0.8439680260372797</v>
       </c>
       <c r="F376">
-        <v>0.5309070385163907</v>
+        <v>0.5309070385163905</v>
       </c>
       <c r="G376">
-        <v>0.8418461865687359</v>
+        <v>0.8418461865687357</v>
       </c>
       <c r="H376">
         <v>0.8372388136000846</v>
@@ -10153,7 +10153,7 @@
         <v>0.6079283634646986</v>
       </c>
       <c r="C377">
-        <v>0.8664099246061394</v>
+        <v>0.8664099246061396</v>
       </c>
       <c r="D377">
         <v>0.486059400914199</v>
@@ -10162,7 +10162,7 @@
         <v>0.8439680260372796</v>
       </c>
       <c r="F377">
-        <v>0.5309070385163905</v>
+        <v>0.5309070385163904</v>
       </c>
       <c r="G377">
         <v>0.8418461865687357</v>
@@ -10179,22 +10179,22 @@
         <v>0.8366516667362861</v>
       </c>
       <c r="C378">
-        <v>0.9767161433384032</v>
+        <v>0.976716143338403</v>
       </c>
       <c r="D378">
         <v>0.7491436080988897</v>
       </c>
       <c r="E378">
-        <v>0.9535684156452198</v>
+        <v>0.9535684156452195</v>
       </c>
       <c r="F378">
-        <v>0.7767431948250509</v>
+        <v>0.7767431948250507</v>
       </c>
       <c r="G378">
-        <v>0.9510659856023254</v>
+        <v>0.9510659856023251</v>
       </c>
       <c r="H378">
-        <v>0.9458889342085951</v>
+        <v>0.945888934208595</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10205,7 +10205,7 @@
         <v>0.8366516667362861</v>
       </c>
       <c r="C379">
-        <v>0.9767161433384031</v>
+        <v>0.976716143338403</v>
       </c>
       <c r="D379">
         <v>0.7491436080988897</v>
@@ -10214,10 +10214,10 @@
         <v>0.9535684156452198</v>
       </c>
       <c r="F379">
-        <v>0.7767431948250509</v>
+        <v>0.7767431948250507</v>
       </c>
       <c r="G379">
-        <v>0.9510659856023254</v>
+        <v>0.9510659856023252</v>
       </c>
       <c r="H379">
         <v>0.945888934208595</v>
@@ -10234,19 +10234,19 @@
         <v>0.9901143938476251</v>
       </c>
       <c r="D380">
-        <v>0.6841305129173241</v>
+        <v>0.6841305129173242</v>
       </c>
       <c r="E380">
-        <v>0.9657788099869635</v>
+        <v>0.9657788099869633</v>
       </c>
       <c r="F380">
-        <v>0.7323092097192727</v>
+        <v>0.7323092097192726</v>
       </c>
       <c r="G380">
-        <v>0.9621394729107908</v>
+        <v>0.9621394729107905</v>
       </c>
       <c r="H380">
-        <v>0.9566525797655913</v>
+        <v>0.9566525797655911</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10260,19 +10260,19 @@
         <v>0.9901143938476251</v>
       </c>
       <c r="D381">
-        <v>0.6841305129173241</v>
+        <v>0.6841305129173242</v>
       </c>
       <c r="E381">
         <v>0.9657788099869635</v>
       </c>
       <c r="F381">
-        <v>0.7323092097192727</v>
+        <v>0.7323092097192725</v>
       </c>
       <c r="G381">
-        <v>0.9621394729107908</v>
+        <v>0.9621394729107905</v>
       </c>
       <c r="H381">
-        <v>0.9566525797655913</v>
+        <v>0.9566525797655911</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10283,13 +10283,13 @@
         <v>0.8340302648845058</v>
       </c>
       <c r="C382">
-        <v>0.9526995151883099</v>
+        <v>0.9526995151883096</v>
       </c>
       <c r="D382">
-        <v>0.4966661935720471</v>
+        <v>0.4966661935720472</v>
       </c>
       <c r="E382">
-        <v>0.9289988730069638</v>
+        <v>0.9289988730069637</v>
       </c>
       <c r="F382">
         <v>0.621134098726334</v>
@@ -10315,7 +10315,7 @@
         <v>0.5620780155600528</v>
       </c>
       <c r="E383">
-        <v>0.9837555772397882</v>
+        <v>0.9837555772397885</v>
       </c>
       <c r="F383">
         <v>0.6093925102607037</v>
@@ -10332,7 +10332,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.6135204314799209</v>
+        <v>0.613520431479921</v>
       </c>
       <c r="C384">
         <v>0.9578769101442633</v>
@@ -10341,16 +10341,16 @@
         <v>0.5716681958130811</v>
       </c>
       <c r="E384">
-        <v>0.9333136557994829</v>
+        <v>0.9333136557994828</v>
       </c>
       <c r="F384">
-        <v>0.6052027618823187</v>
+        <v>0.6052027618823186</v>
       </c>
       <c r="G384">
         <v>0.9315947798926615</v>
       </c>
       <c r="H384">
-        <v>0.9261632469122522</v>
+        <v>0.9261632469122519</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10364,13 +10364,13 @@
         <v>1.059986925841449</v>
       </c>
       <c r="D385">
-        <v>0.6951799650343015</v>
+        <v>0.6951799650343016</v>
       </c>
       <c r="E385">
         <v>1.034863500004028</v>
       </c>
       <c r="F385">
-        <v>0.7645763773664009</v>
+        <v>0.7645763773664007</v>
       </c>
       <c r="G385">
         <v>1.030223509279528</v>
@@ -10387,19 +10387,19 @@
         <v>0.3891355694342218</v>
       </c>
       <c r="C386">
-        <v>0.9189090688343466</v>
+        <v>0.9189090688343468</v>
       </c>
       <c r="D386">
         <v>0.4168881246127507</v>
       </c>
       <c r="E386">
-        <v>0.8932543341754917</v>
+        <v>0.8932543341754916</v>
       </c>
       <c r="F386">
-        <v>0.4367040995444147</v>
+        <v>0.4367040995444145</v>
       </c>
       <c r="G386">
-        <v>0.8904000719509237</v>
+        <v>0.8904000719509236</v>
       </c>
       <c r="H386">
         <v>0.884892416754696</v>
@@ -10419,10 +10419,10 @@
         <v>0.4168881246127507</v>
       </c>
       <c r="E387">
-        <v>0.8932543341754917</v>
+        <v>0.8932543341754916</v>
       </c>
       <c r="F387">
-        <v>0.4367040995444146</v>
+        <v>0.4367040995444145</v>
       </c>
       <c r="G387">
         <v>0.8904000719509237</v>
@@ -10442,16 +10442,16 @@
         <v>0.6618834264854468</v>
       </c>
       <c r="D388">
-        <v>0.5166525366821356</v>
+        <v>0.5166525366821354</v>
       </c>
       <c r="E388">
-        <v>0.6433609799635733</v>
+        <v>0.6433609799635732</v>
       </c>
       <c r="F388">
         <v>0.495826046415379</v>
       </c>
       <c r="G388">
-        <v>0.6475961517627585</v>
+        <v>0.6475961517627586</v>
       </c>
       <c r="H388">
         <v>0.6424156928770935</v>
@@ -10468,13 +10468,13 @@
         <v>0.6656063654109203</v>
       </c>
       <c r="D389">
-        <v>0.2956781791778118</v>
+        <v>0.2956781791778119</v>
       </c>
       <c r="E389">
-        <v>0.6462010989427639</v>
+        <v>0.6462010989427638</v>
       </c>
       <c r="F389">
-        <v>0.3602087524349145</v>
+        <v>0.3602087524349144</v>
       </c>
       <c r="G389">
         <v>0.6445057407224494</v>
@@ -10514,13 +10514,13 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.6876082959143718</v>
+        <v>0.6876082959143717</v>
       </c>
       <c r="C391">
         <v>0.6618834264854468</v>
       </c>
       <c r="D391">
-        <v>0.5166525366821356</v>
+        <v>0.5166525366821354</v>
       </c>
       <c r="E391">
         <v>0.6433609799635732</v>
@@ -10529,10 +10529,10 @@
         <v>0.495826046415379</v>
       </c>
       <c r="G391">
-        <v>0.6475961517627586</v>
+        <v>0.6475961517627588</v>
       </c>
       <c r="H391">
-        <v>0.6424156928770935</v>
+        <v>0.6424156928770934</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10546,13 +10546,13 @@
         <v>0.6656063654109203</v>
       </c>
       <c r="D392">
-        <v>0.2956781791778118</v>
+        <v>0.2956781791778119</v>
       </c>
       <c r="E392">
         <v>0.6462010989427639</v>
       </c>
       <c r="F392">
-        <v>0.3602087524349145</v>
+        <v>0.3602087524349144</v>
       </c>
       <c r="G392">
         <v>0.6445057407224494</v>
@@ -10575,13 +10575,13 @@
         <v>0.3014101219043276</v>
       </c>
       <c r="E393">
-        <v>0.4920896113867516</v>
+        <v>0.4920896113867515</v>
       </c>
       <c r="F393">
         <v>0.3121177155735781</v>
       </c>
       <c r="G393">
-        <v>0.4911299589428433</v>
+        <v>0.4911299589428432</v>
       </c>
       <c r="H393">
         <v>0.4877740746195918</v>
@@ -10607,7 +10607,7 @@
         <v>0.3121177155735781</v>
       </c>
       <c r="G394">
-        <v>0.4911299589428433</v>
+        <v>0.4911299589428432</v>
       </c>
       <c r="H394">
         <v>0.4877740746195918</v>
@@ -10636,7 +10636,7 @@
         <v>0.5000755572559065</v>
       </c>
       <c r="H395">
-        <v>0.4971518040991376</v>
+        <v>0.4971518040991375</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>0.5000755572559066</v>
       </c>
       <c r="H396">
-        <v>0.4971518040991376</v>
+        <v>0.4971518040991375</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10670,7 +10670,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.7022421788923762</v>
+        <v>0.7022421788923761</v>
       </c>
       <c r="C397">
         <v>0.5680041280645989</v>
@@ -10685,7 +10685,7 @@
         <v>0.4043558495794756</v>
       </c>
       <c r="G397">
-        <v>0.5513809800729663</v>
+        <v>0.5513809800729662</v>
       </c>
       <c r="H397">
         <v>0.5481965111180166</v>
@@ -10696,7 +10696,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.7022421788923762</v>
+        <v>0.7022421788923761</v>
       </c>
       <c r="C398">
         <v>0.5680041280645989</v>
@@ -10711,7 +10711,7 @@
         <v>0.4043558495794757</v>
       </c>
       <c r="G398">
-        <v>0.5513809800729663</v>
+        <v>0.5513809800729662</v>
       </c>
       <c r="H398">
         <v>0.5481965111180167</v>
@@ -10722,7 +10722,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.5170020345622037</v>
+        <v>0.5170020345622036</v>
       </c>
       <c r="C399">
         <v>0.7045548586625443</v>
@@ -10748,7 +10748,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.5034951219084418</v>
+        <v>0.5034951219084417</v>
       </c>
       <c r="C400">
         <v>0.7147133954160486</v>
@@ -10757,16 +10757,16 @@
         <v>0.2540506087751078</v>
       </c>
       <c r="E400">
-        <v>0.6911071079472072</v>
+        <v>0.6911071079472071</v>
       </c>
       <c r="F400">
         <v>0.2737518530543856</v>
       </c>
       <c r="G400">
-        <v>0.688826173537845</v>
+        <v>0.6888261735378448</v>
       </c>
       <c r="H400">
-        <v>0.6833337041259284</v>
+        <v>0.6833337041259282</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10800,13 +10800,13 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>0.5013461767903918</v>
+        <v>0.5013461767903917</v>
       </c>
       <c r="C402">
         <v>0.6643448195514796</v>
       </c>
       <c r="D402">
-        <v>0.2093552283861052</v>
+        <v>0.2093552283861051</v>
       </c>
       <c r="E402">
         <v>0.6429552558008234</v>
@@ -10826,7 +10826,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.5034951219084418</v>
+        <v>0.5034951219084417</v>
       </c>
       <c r="C403">
         <v>0.7147133954160486</v>
@@ -10835,16 +10835,16 @@
         <v>0.2540506087751078</v>
       </c>
       <c r="E403">
-        <v>0.6911071079472072</v>
+        <v>0.6911071079472071</v>
       </c>
       <c r="F403">
         <v>0.2737518530543856</v>
       </c>
       <c r="G403">
-        <v>0.688826173537845</v>
+        <v>0.6888261735378449</v>
       </c>
       <c r="H403">
-        <v>0.6833337041259284</v>
+        <v>0.6833337041259282</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10858,7 +10858,7 @@
         <v>0.6538397366922776</v>
       </c>
       <c r="D404">
-        <v>0.2369120365320314</v>
+        <v>0.2369120365320313</v>
       </c>
       <c r="E404">
         <v>0.6322827912443624</v>
@@ -10870,7 +10870,7 @@
         <v>0.6301772300710126</v>
       </c>
       <c r="H404">
-        <v>0.6251039672927509</v>
+        <v>0.6251039672927506</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>0.6301772300710126</v>
       </c>
       <c r="H405">
-        <v>0.6251039672927509</v>
+        <v>0.6251039672927508</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10904,25 +10904,25 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.4491919696478196</v>
+        <v>0.4491919696478195</v>
       </c>
       <c r="C406">
         <v>0.6538397366922776</v>
       </c>
       <c r="D406">
-        <v>0.2369120365320314</v>
+        <v>0.2369120365320313</v>
       </c>
       <c r="E406">
         <v>0.6322827912443624</v>
       </c>
       <c r="F406">
-        <v>0.2443012515652586</v>
+        <v>0.2443012515652587</v>
       </c>
       <c r="G406">
         <v>0.6301772300710126</v>
       </c>
       <c r="H406">
-        <v>0.6251039672927509</v>
+        <v>0.6251039672927508</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10939,7 +10939,7 @@
         <v>0.2221127998110869</v>
       </c>
       <c r="E407">
-        <v>0.59013443945421</v>
+        <v>0.5901344394542101</v>
       </c>
       <c r="F407">
         <v>0.2245201587256077</v>
@@ -11037,7 +11037,7 @@
         <v>0.4589968731955431</v>
       </c>
       <c r="C411">
-        <v>0.9034646821094505</v>
+        <v>0.9034646821094504</v>
       </c>
       <c r="D411">
         <v>0.4845493756358486</v>
@@ -11049,7 +11049,7 @@
         <v>0.4518487295270212</v>
       </c>
       <c r="G411">
-        <v>0.8734580792287718</v>
+        <v>0.8734580792287717</v>
       </c>
       <c r="H411">
         <v>0.8662337897987242</v>
@@ -11063,7 +11063,7 @@
         <v>0.4589968731955431</v>
       </c>
       <c r="C412">
-        <v>0.9034646821094505</v>
+        <v>0.9034646821094504</v>
       </c>
       <c r="D412">
         <v>0.4845493756358485</v>
@@ -11095,7 +11095,7 @@
         <v>0.3114914649861728</v>
       </c>
       <c r="E413">
-        <v>0.8510394834391585</v>
+        <v>0.8510394834391584</v>
       </c>
       <c r="F413">
         <v>0.3271256714728488</v>
@@ -11112,13 +11112,13 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.5283377129718164</v>
+        <v>0.5283377129718163</v>
       </c>
       <c r="C414">
         <v>0.9590042797482531</v>
       </c>
       <c r="D414">
-        <v>0.5489247368023509</v>
+        <v>0.5489247368023508</v>
       </c>
       <c r="E414">
         <v>0.9278054376416317</v>
@@ -11130,7 +11130,7 @@
         <v>0.9278275884691093</v>
       </c>
       <c r="H414">
-        <v>0.9200539519749724</v>
+        <v>0.9200539519749722</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11144,19 +11144,19 @@
         <v>0.9127512210844076</v>
       </c>
       <c r="D415">
-        <v>0.4077690854143662</v>
+        <v>0.4077690854143661</v>
       </c>
       <c r="E415">
-        <v>0.8828506158563657</v>
+        <v>0.8828506158563655</v>
       </c>
       <c r="F415">
         <v>0.4532583588316043</v>
       </c>
       <c r="G415">
-        <v>0.8825051135274203</v>
+        <v>0.8825051135274204</v>
       </c>
       <c r="H415">
-        <v>0.8756453493535979</v>
+        <v>0.8756453493535978</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11164,16 +11164,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.5551618813364149</v>
+        <v>0.5551618813364148</v>
       </c>
       <c r="C416">
         <v>0.9127512210844076</v>
       </c>
       <c r="D416">
-        <v>0.4077690854143662</v>
+        <v>0.4077690854143661</v>
       </c>
       <c r="E416">
-        <v>0.8828506158563656</v>
+        <v>0.8828506158563655</v>
       </c>
       <c r="F416">
         <v>0.4532583588316042</v>
@@ -11182,7 +11182,7 @@
         <v>0.8825051135274204</v>
       </c>
       <c r="H416">
-        <v>0.8756453493535979</v>
+        <v>0.8756453493535977</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11190,7 +11190,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.53278551625814</v>
+        <v>0.5327855162581399</v>
       </c>
       <c r="C417">
         <v>0.807722258262256</v>
@@ -11202,13 +11202,13 @@
         <v>0.7812667945041057</v>
       </c>
       <c r="F417">
-        <v>0.3309904789290185</v>
+        <v>0.3309904789290184</v>
       </c>
       <c r="G417">
-        <v>0.778985482339618</v>
+        <v>0.7789854823396177</v>
       </c>
       <c r="H417">
-        <v>0.7732534388207962</v>
+        <v>0.7732534388207961</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11216,7 +11216,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.53278551625814</v>
+        <v>0.5327855162581399</v>
       </c>
       <c r="C418">
         <v>0.807722258262256</v>
@@ -11228,13 +11228,13 @@
         <v>0.7812667945041057</v>
       </c>
       <c r="F418">
-        <v>0.3309904789290185</v>
+        <v>0.3309904789290184</v>
       </c>
       <c r="G418">
         <v>0.778985482339618</v>
       </c>
       <c r="H418">
-        <v>0.7732534388207962</v>
+        <v>0.7732534388207961</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11248,19 +11248,19 @@
         <v>0.8199292113168113</v>
       </c>
       <c r="D419">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
       <c r="E419">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
       <c r="F419">
         <v>0.5019352301324375</v>
       </c>
       <c r="G419">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H419">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11277,16 +11277,16 @@
         <v>0.5304793515844581</v>
       </c>
       <c r="E420">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
       <c r="F420">
         <v>0.5019352301324375</v>
       </c>
       <c r="G420">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H420">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11297,7 +11297,7 @@
         <v>0.5577998475485278</v>
       </c>
       <c r="C421">
-        <v>0.6996336535322064</v>
+        <v>0.6996336535322063</v>
       </c>
       <c r="D421">
         <v>0.5687684899816066</v>
@@ -11309,7 +11309,7 @@
         <v>0.5316575866249814</v>
       </c>
       <c r="G421">
-        <v>0.6856162130505797</v>
+        <v>0.6856162130505793</v>
       </c>
       <c r="H421">
         <v>0.680790641665294</v>
@@ -11323,7 +11323,7 @@
         <v>0.5577998475485278</v>
       </c>
       <c r="C422">
-        <v>0.6996336535322064</v>
+        <v>0.6996336535322063</v>
       </c>
       <c r="D422">
         <v>0.5687684899816066</v>
@@ -11335,7 +11335,7 @@
         <v>0.5316575866249813</v>
       </c>
       <c r="G422">
-        <v>0.6856162130505796</v>
+        <v>0.6856162130505794</v>
       </c>
       <c r="H422">
         <v>0.680790641665294</v>
@@ -11349,22 +11349,22 @@
         <v>0.5298449378090223</v>
       </c>
       <c r="C423">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
       <c r="D423">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
       <c r="E423">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
       <c r="F423">
         <v>0.5019352301324375</v>
       </c>
       <c r="G423">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H423">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11375,7 +11375,7 @@
         <v>0.5298449378090223</v>
       </c>
       <c r="C424">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
       <c r="D424">
         <v>0.5304793515844581</v>
@@ -11387,10 +11387,10 @@
         <v>0.5019352301324375</v>
       </c>
       <c r="G424">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H424">
-        <v>0.7910245728815078</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11401,19 +11401,19 @@
         <v>0.5577998475485278</v>
       </c>
       <c r="C425">
-        <v>0.6996336535322065</v>
+        <v>0.6996336535322064</v>
       </c>
       <c r="D425">
         <v>0.5687684899816066</v>
       </c>
       <c r="E425">
-        <v>0.6822859143160143</v>
+        <v>0.6822859143160144</v>
       </c>
       <c r="F425">
         <v>0.5316575866249814</v>
       </c>
       <c r="G425">
-        <v>0.6856162130505795</v>
+        <v>0.6856162130505794</v>
       </c>
       <c r="H425">
         <v>0.680790641665294</v>
@@ -11436,13 +11436,13 @@
         <v>0.7960606246180105</v>
       </c>
       <c r="F426">
-        <v>0.5019352301324373</v>
+        <v>0.5019352301324375</v>
       </c>
       <c r="G426">
         <v>0.7973219246153055</v>
       </c>
       <c r="H426">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11453,10 +11453,10 @@
         <v>0.5199978808676102</v>
       </c>
       <c r="C427">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
       <c r="D427">
-        <v>0.4856726037901605</v>
+        <v>0.4856726037901604</v>
       </c>
       <c r="E427">
         <v>0.8085636421465875</v>
@@ -11465,10 +11465,10 @@
         <v>0.4677403975791046</v>
       </c>
       <c r="G427">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
       <c r="H427">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498022</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11479,10 +11479,10 @@
         <v>0.5199978808676101</v>
       </c>
       <c r="C428">
-        <v>0.8328976066877449</v>
+        <v>0.832897606687745</v>
       </c>
       <c r="D428">
-        <v>0.4856726037901604</v>
+        <v>0.4856726037901605</v>
       </c>
       <c r="E428">
         <v>0.8085636421465874</v>
@@ -11491,10 +11491,10 @@
         <v>0.4677403975791046</v>
       </c>
       <c r="G428">
-        <v>0.8087948035898053</v>
+        <v>0.8087948035898052</v>
       </c>
       <c r="H428">
-        <v>0.8023776574498022</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11505,7 +11505,7 @@
         <v>0.5298449378090223</v>
       </c>
       <c r="C429">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
       <c r="D429">
         <v>0.5304793515844581</v>
@@ -11517,10 +11517,10 @@
         <v>0.5019352301324375</v>
       </c>
       <c r="G429">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H429">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11531,10 +11531,10 @@
         <v>0.5298449378090223</v>
       </c>
       <c r="C430">
-        <v>0.8199292113168114</v>
+        <v>0.8199292113168115</v>
       </c>
       <c r="D430">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
       <c r="E430">
         <v>0.7960606246180104</v>
@@ -11543,7 +11543,7 @@
         <v>0.5019352301324375</v>
       </c>
       <c r="G430">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H430">
         <v>0.791024572881508</v>
@@ -11557,7 +11557,7 @@
         <v>0.5577998475485278</v>
       </c>
       <c r="C431">
-        <v>0.6996336535322064</v>
+        <v>0.6996336535322062</v>
       </c>
       <c r="D431">
         <v>0.5687684899816066</v>
@@ -11569,7 +11569,7 @@
         <v>0.5316575866249814</v>
       </c>
       <c r="G431">
-        <v>0.6856162130505795</v>
+        <v>0.6856162130505793</v>
       </c>
       <c r="H431">
         <v>0.6807906416652941</v>
@@ -11583,10 +11583,10 @@
         <v>0.5298449378090223</v>
       </c>
       <c r="C432">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
       <c r="D432">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
       <c r="E432">
         <v>0.7960606246180104</v>
@@ -11595,10 +11595,10 @@
         <v>0.5019352301324375</v>
       </c>
       <c r="G432">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H432">
-        <v>0.7910245728815078</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11609,7 +11609,7 @@
         <v>0.5298449378090223</v>
       </c>
       <c r="C433">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168115</v>
       </c>
       <c r="D433">
         <v>0.5304793515844581</v>
@@ -11621,10 +11621,10 @@
         <v>0.5019352301324375</v>
       </c>
       <c r="G433">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H433">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11635,13 +11635,13 @@
         <v>0.5235635337000107</v>
       </c>
       <c r="C434">
-        <v>0.7027552128907504</v>
+        <v>0.7027552128907503</v>
       </c>
       <c r="D434">
         <v>0.389840405976102</v>
       </c>
       <c r="E434">
-        <v>0.6829203747891952</v>
+        <v>0.6829203747891951</v>
       </c>
       <c r="F434">
         <v>0.4123443633095357</v>
@@ -11664,19 +11664,19 @@
         <v>0.8199292113168113</v>
       </c>
       <c r="D435">
-        <v>0.5304793515844581</v>
+        <v>0.530479351584458</v>
       </c>
       <c r="E435">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
       <c r="F435">
         <v>0.5019352301324375</v>
       </c>
       <c r="G435">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
       <c r="H435">
-        <v>0.7910245728815078</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11687,7 +11687,7 @@
         <v>0.5085522830753332</v>
       </c>
       <c r="C436">
-        <v>0.7282423431635242</v>
+        <v>0.7282423431635241</v>
       </c>
       <c r="D436">
         <v>0.2298105529377015</v>
@@ -11696,7 +11696,7 @@
         <v>0.7067655295824078</v>
       </c>
       <c r="F436">
-        <v>0.3049463499045429</v>
+        <v>0.304946349904543</v>
       </c>
       <c r="G436">
         <v>0.7027536190001591</v>
@@ -11710,7 +11710,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C437">
         <v>0.6011891332104454</v>
@@ -11722,10 +11722,10 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F437">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G437">
-        <v>0.5852571834370461</v>
+        <v>0.585257183437046</v>
       </c>
       <c r="H437">
         <v>0.5811220139459733</v>
@@ -11736,7 +11736,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C438">
         <v>0.6011891332104454</v>
@@ -11745,10 +11745,10 @@
         <v>0.331546380031882</v>
       </c>
       <c r="E438">
-        <v>0.5841262366955295</v>
+        <v>0.5841262366955297</v>
       </c>
       <c r="F438">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G438">
         <v>0.5852571834370462</v>
@@ -11762,7 +11762,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C439">
         <v>0.6011891332104454</v>
@@ -11774,10 +11774,10 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F439">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G439">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
       <c r="H439">
         <v>0.5811220139459733</v>
@@ -11788,19 +11788,19 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C440">
         <v>0.6011891332104454</v>
       </c>
       <c r="D440">
-        <v>0.331546380031882</v>
+        <v>0.3315463800318819</v>
       </c>
       <c r="E440">
         <v>0.5841262366955295</v>
       </c>
       <c r="F440">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G440">
         <v>0.5852571834370461</v>
@@ -11814,7 +11814,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C441">
         <v>0.6011891332104454</v>
@@ -11826,10 +11826,10 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F441">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G441">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
       <c r="H441">
         <v>0.5811220139459733</v>
@@ -11849,7 +11849,7 @@
         <v>0.3330383299625643</v>
       </c>
       <c r="E442">
-        <v>0.543860295318039</v>
+        <v>0.5438602953180391</v>
       </c>
       <c r="F442">
         <v>0.3120904129371506</v>
@@ -11858,7 +11858,7 @@
         <v>0.5463455342707282</v>
       </c>
       <c r="H442">
-        <v>0.5439299364604984</v>
+        <v>0.5439299364604983</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11866,10 +11866,10 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867727</v>
       </c>
       <c r="C443">
-        <v>0.6011891332104455</v>
+        <v>0.6011891332104454</v>
       </c>
       <c r="D443">
         <v>0.331546380031882</v>
@@ -11878,10 +11878,10 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F443">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G443">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
       <c r="H443">
         <v>0.5811220139459733</v>
@@ -11892,7 +11892,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C444">
         <v>0.6011891332104454</v>
@@ -11904,10 +11904,10 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F444">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G444">
-        <v>0.5852571834370462</v>
+        <v>0.585257183437046</v>
       </c>
       <c r="H444">
         <v>0.5811220139459733</v>
@@ -11918,7 +11918,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C445">
         <v>0.6011891332104454</v>
@@ -11930,7 +11930,7 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F445">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G445">
         <v>0.5852571834370462</v>
@@ -11944,22 +11944,22 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C446">
         <v>0.6011891332104454</v>
       </c>
       <c r="D446">
-        <v>0.331546380031882</v>
+        <v>0.3315463800318819</v>
       </c>
       <c r="E446">
         <v>0.5841262366955295</v>
       </c>
       <c r="F446">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G446">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
       <c r="H446">
         <v>0.5811220139459733</v>
@@ -11970,7 +11970,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
       <c r="C447">
         <v>0.6011891332104454</v>
@@ -11982,7 +11982,7 @@
         <v>0.5841262366955295</v>
       </c>
       <c r="F447">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
       <c r="G447">
         <v>0.5852571834370462</v>
@@ -12002,19 +12002,19 @@
         <v>0.902112573074482</v>
       </c>
       <c r="D448">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
       <c r="E448">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110391</v>
       </c>
       <c r="F448">
-        <v>0.5399546756098255</v>
+        <v>0.5399546756098256</v>
       </c>
       <c r="G448">
         <v>0.8747360462933168</v>
       </c>
       <c r="H448">
-        <v>0.8716470522533695</v>
+        <v>0.8716470522533694</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12025,13 +12025,13 @@
         <v>0.6736069571599854</v>
       </c>
       <c r="C449">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
       <c r="D449">
         <v>0.4026936524961917</v>
       </c>
       <c r="E449">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
       <c r="F449">
         <v>0.5399546756098256</v>
@@ -12048,16 +12048,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>0.6736069571599853</v>
+        <v>0.6736069571599854</v>
       </c>
       <c r="C450">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
       <c r="D450">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
       <c r="E450">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
       <c r="F450">
         <v>0.5399546756098256</v>
@@ -12080,13 +12080,13 @@
         <v>0.9021125730744818</v>
       </c>
       <c r="D451">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
       <c r="E451">
         <v>0.8794542988110392</v>
       </c>
       <c r="F451">
-        <v>0.5399546756098255</v>
+        <v>0.5399546756098256</v>
       </c>
       <c r="G451">
         <v>0.8747360462933167</v>
@@ -12100,16 +12100,16 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.6736069571599853</v>
+        <v>0.6736069571599854</v>
       </c>
       <c r="C452">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
       <c r="D452">
         <v>0.4026936524961917</v>
       </c>
       <c r="E452">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110391</v>
       </c>
       <c r="F452">
         <v>0.5399546756098256</v>
@@ -12118,7 +12118,7 @@
         <v>0.8747360462933168</v>
       </c>
       <c r="H452">
-        <v>0.8716470522533696</v>
+        <v>0.8716470522533694</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12129,13 +12129,13 @@
         <v>0.6736069571599854</v>
       </c>
       <c r="C453">
-        <v>0.9021125730744818</v>
+        <v>0.902112573074482</v>
       </c>
       <c r="D453">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
       <c r="E453">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
       <c r="F453">
         <v>0.5399546756098256</v>
@@ -12144,7 +12144,7 @@
         <v>0.8747360462933168</v>
       </c>
       <c r="H453">
-        <v>0.8716470522533695</v>
+        <v>0.8716470522533694</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12155,10 +12155,10 @@
         <v>0.5002533273070836</v>
       </c>
       <c r="C454">
-        <v>0.869436750810332</v>
+        <v>0.8694367508103321</v>
       </c>
       <c r="D454">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E454">
         <v>0.8446457813018945</v>
@@ -12167,10 +12167,10 @@
         <v>0.478261952889477</v>
       </c>
       <c r="G454">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
       <c r="H454">
-        <v>0.8391571763922817</v>
+        <v>0.8391571763922816</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12184,7 +12184,7 @@
         <v>0.869436750810332</v>
       </c>
       <c r="D455">
-        <v>0.474038198900327</v>
+        <v>0.4740381989003271</v>
       </c>
       <c r="E455">
         <v>0.8446457813018943</v>
@@ -12193,10 +12193,10 @@
         <v>0.478261952889477</v>
       </c>
       <c r="G455">
-        <v>0.8453359861355748</v>
+        <v>0.8453359861355747</v>
       </c>
       <c r="H455">
-        <v>0.8391571763922816</v>
+        <v>0.8391571763922814</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12207,10 +12207,10 @@
         <v>0.5002533273070836</v>
       </c>
       <c r="C456">
-        <v>0.8694367508103321</v>
+        <v>0.869436750810332</v>
       </c>
       <c r="D456">
-        <v>0.474038198900327</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E456">
         <v>0.8446457813018944</v>
@@ -12219,7 +12219,7 @@
         <v>0.478261952889477</v>
       </c>
       <c r="G456">
-        <v>0.8453359861355748</v>
+        <v>0.8453359861355747</v>
       </c>
       <c r="H456">
         <v>0.8391571763922816</v>
@@ -12236,19 +12236,19 @@
         <v>0.8694367508103321</v>
       </c>
       <c r="D457">
-        <v>0.474038198900327</v>
+        <v>0.4740381989003271</v>
       </c>
       <c r="E457">
         <v>0.8446457813018945</v>
       </c>
       <c r="F457">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
       <c r="G457">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
       <c r="H457">
-        <v>0.8391571763922816</v>
+        <v>0.8391571763922814</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12262,7 +12262,7 @@
         <v>0.8694367508103321</v>
       </c>
       <c r="D458">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E458">
         <v>0.8446457813018944</v>
@@ -12271,7 +12271,7 @@
         <v>0.478261952889477</v>
       </c>
       <c r="G458">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
       <c r="H458">
         <v>0.8391571763922816</v>
@@ -12282,25 +12282,25 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.5002533273070836</v>
+        <v>0.5002533273070837</v>
       </c>
       <c r="C459">
         <v>0.869436750810332</v>
       </c>
       <c r="D459">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E459">
         <v>0.8446457813018944</v>
       </c>
       <c r="F459">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
       <c r="G459">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
       <c r="H459">
-        <v>0.8391571763922816</v>
+        <v>0.8391571763922814</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12320,10 +12320,10 @@
         <v>0.8446457813018945</v>
       </c>
       <c r="F460">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
       <c r="G460">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355747</v>
       </c>
       <c r="H460">
         <v>0.8391571763922816</v>
@@ -12340,16 +12340,16 @@
         <v>0.8694367508103321</v>
       </c>
       <c r="D461">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E461">
         <v>0.8446457813018945</v>
       </c>
       <c r="F461">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
       <c r="G461">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
       <c r="H461">
         <v>0.8391571763922816</v>
@@ -12363,10 +12363,10 @@
         <v>0.5002533273070836</v>
       </c>
       <c r="C462">
-        <v>0.869436750810332</v>
+        <v>0.8694367508103321</v>
       </c>
       <c r="D462">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E462">
         <v>0.8446457813018945</v>
@@ -12375,10 +12375,10 @@
         <v>0.478261952889477</v>
       </c>
       <c r="G462">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
       <c r="H462">
-        <v>0.8391571763922817</v>
+        <v>0.8391571763922816</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12389,7 +12389,7 @@
         <v>0.5199978808676102</v>
       </c>
       <c r="C463">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
       <c r="D463">
         <v>0.4856726037901605</v>
@@ -12401,10 +12401,10 @@
         <v>0.4677403975791046</v>
       </c>
       <c r="G463">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
       <c r="H463">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12415,7 +12415,7 @@
         <v>0.5199978808676102</v>
       </c>
       <c r="C464">
-        <v>0.8328976066877449</v>
+        <v>0.832897606687745</v>
       </c>
       <c r="D464">
         <v>0.4856726037901605</v>
@@ -12427,10 +12427,10 @@
         <v>0.4677403975791046</v>
       </c>
       <c r="G464">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
       <c r="H464">
-        <v>0.8023776574498022</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12467,7 +12467,7 @@
         <v>0.5136271673157231</v>
       </c>
       <c r="C466">
-        <v>0.7147743941554372</v>
+        <v>0.7147743941554373</v>
       </c>
       <c r="D466">
         <v>0.3551987855782694</v>
@@ -12476,7 +12476,7 @@
         <v>0.6945476807774377</v>
       </c>
       <c r="F466">
-        <v>0.3890811579444478</v>
+        <v>0.3890811579444479</v>
       </c>
       <c r="G466">
         <v>0.6933606615728041</v>
@@ -12493,10 +12493,10 @@
         <v>0.5199978808676102</v>
       </c>
       <c r="C467">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
       <c r="D467">
-        <v>0.4856726037901605</v>
+        <v>0.4856726037901604</v>
       </c>
       <c r="E467">
         <v>0.8085636421465874</v>
@@ -12505,10 +12505,10 @@
         <v>0.4677403975791046</v>
       </c>
       <c r="G467">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
       <c r="H467">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12519,13 +12519,13 @@
         <v>0.6736069571599854</v>
       </c>
       <c r="C468">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
       <c r="D468">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
       <c r="E468">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110392</v>
       </c>
       <c r="F468">
         <v>0.5399546756098256</v>
@@ -12542,19 +12542,19 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.6736069571599853</v>
+        <v>0.6736069571599854</v>
       </c>
       <c r="C469">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
       <c r="D469">
         <v>0.4026936524961917</v>
       </c>
       <c r="E469">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
       <c r="F469">
-        <v>0.5399546756098255</v>
+        <v>0.5399546756098256</v>
       </c>
       <c r="G469">
         <v>0.8747360462933167</v>
@@ -12574,10 +12574,10 @@
         <v>0.902112573074482</v>
       </c>
       <c r="D470">
-        <v>0.4026936524961917</v>
+        <v>0.4026936524961918</v>
       </c>
       <c r="E470">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110392</v>
       </c>
       <c r="F470">
         <v>0.5399546756098256</v>
@@ -12597,10 +12597,10 @@
         <v>0.5199978808676102</v>
       </c>
       <c r="C471">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
       <c r="D471">
-        <v>0.4856726037901605</v>
+        <v>0.4856726037901604</v>
       </c>
       <c r="E471">
         <v>0.8085636421465874</v>
@@ -12609,10 +12609,10 @@
         <v>0.4677403975791046</v>
       </c>
       <c r="G471">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
       <c r="H471">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498022</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12623,10 +12623,10 @@
         <v>0.5002533273070836</v>
       </c>
       <c r="C472">
-        <v>0.8694367508103322</v>
+        <v>0.8694367508103321</v>
       </c>
       <c r="D472">
-        <v>0.4740381989003271</v>
+        <v>0.4740381989003272</v>
       </c>
       <c r="E472">
         <v>0.8446457813018945</v>
@@ -12638,7 +12638,7 @@
         <v>0.8453359861355748</v>
       </c>
       <c r="H472">
-        <v>0.8391571763922817</v>
+        <v>0.8391571763922816</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12658,7 +12658,7 @@
         <v>0.6945476807774377</v>
       </c>
       <c r="F473">
-        <v>0.3890811579444478</v>
+        <v>0.3890811579444479</v>
       </c>
       <c r="G473">
         <v>0.6933606615728042</v>
@@ -12684,7 +12684,7 @@
         <v>0.6945476807774377</v>
       </c>
       <c r="F474">
-        <v>0.3890811579444477</v>
+        <v>0.3890811579444478</v>
       </c>
       <c r="G474">
         <v>0.6933606615728042</v>
@@ -12701,7 +12701,7 @@
         <v>0.5085522830753331</v>
       </c>
       <c r="C475">
-        <v>0.7282423431635242</v>
+        <v>0.728242343163524</v>
       </c>
       <c r="D475">
         <v>0.2298105529377015</v>
@@ -12710,13 +12710,13 @@
         <v>0.7067655295824077</v>
       </c>
       <c r="F475">
-        <v>0.3049463499045429</v>
+        <v>0.304946349904543</v>
       </c>
       <c r="G475">
-        <v>0.702753619000159</v>
+        <v>0.7027536190001591</v>
       </c>
       <c r="H475">
-        <v>0.6987637237778681</v>
+        <v>0.698763723777868</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12739,7 +12739,7 @@
         <v>0.3086514849809219</v>
       </c>
       <c r="G476">
-        <v>0.6891603119405008</v>
+        <v>0.6891603119405005</v>
       </c>
       <c r="H476">
         <v>0.6841321657161318</v>
@@ -12765,7 +12765,7 @@
         <v>0.3086514849809219</v>
       </c>
       <c r="G477">
-        <v>0.6891603119405008</v>
+        <v>0.6891603119405005</v>
       </c>
       <c r="H477">
         <v>0.6841321657161318</v>
@@ -12776,16 +12776,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.8365042144852745</v>
+        <v>0.8365042144852743</v>
       </c>
       <c r="C478">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
       <c r="D478">
         <v>0.4772110972860918</v>
       </c>
       <c r="E478">
-        <v>0.6531169268021583</v>
+        <v>0.6531169268021582</v>
       </c>
       <c r="F478">
         <v>0.5266240939464492</v>
@@ -12828,7 +12828,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.8219399470989934</v>
+        <v>0.8219399470989932</v>
       </c>
       <c r="C480">
         <v>0.7874578470582949</v>
@@ -12840,7 +12840,7 @@
         <v>0.7652659707678581</v>
       </c>
       <c r="F480">
-        <v>0.5111331468130343</v>
+        <v>0.5111331468130342</v>
       </c>
       <c r="G480">
         <v>0.764307921584418</v>
@@ -12857,13 +12857,13 @@
         <v>0.8365042144852743</v>
       </c>
       <c r="C481">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
       <c r="D481">
         <v>0.4772110972860918</v>
       </c>
       <c r="E481">
-        <v>0.6531169268021583</v>
+        <v>0.653116926802158</v>
       </c>
       <c r="F481">
         <v>0.5266240939464492</v>
@@ -12880,16 +12880,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.8365042144852743</v>
+        <v>0.8365042144852741</v>
       </c>
       <c r="C482">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
       <c r="D482">
         <v>0.4772110972860918</v>
       </c>
       <c r="E482">
-        <v>0.6531169268021583</v>
+        <v>0.653116926802158</v>
       </c>
       <c r="F482">
         <v>0.5266240939464492</v>
@@ -12909,13 +12909,13 @@
         <v>0.8365042144852743</v>
       </c>
       <c r="C483">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
       <c r="D483">
         <v>0.4772110972860919</v>
       </c>
       <c r="E483">
-        <v>0.6531169268021583</v>
+        <v>0.6531169268021582</v>
       </c>
       <c r="F483">
         <v>0.5266240939464492</v>
@@ -12941,7 +12941,7 @@
         <v>0.4772110972860918</v>
       </c>
       <c r="E484">
-        <v>0.6531169268021583</v>
+        <v>0.653116926802158</v>
       </c>
       <c r="F484">
         <v>0.5266240939464492</v>
@@ -12961,7 +12961,7 @@
         <v>0.8219399470989932</v>
       </c>
       <c r="C485">
-        <v>0.787457847058295</v>
+        <v>0.7874578470582949</v>
       </c>
       <c r="D485">
         <v>0.4531712911604611</v>
@@ -12976,7 +12976,7 @@
         <v>0.7643079215844177</v>
       </c>
       <c r="H485">
-        <v>0.7588248261364485</v>
+        <v>0.7588248261364484</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -12993,13 +12993,13 @@
         <v>0.4771271380173522</v>
       </c>
       <c r="E486">
-        <v>0.7522346790079893</v>
+        <v>0.7522346790079892</v>
       </c>
       <c r="F486">
-        <v>0.5151136256016035</v>
+        <v>0.5151136256016033</v>
       </c>
       <c r="G486">
-        <v>0.7522711496869989</v>
+        <v>0.7522711496869988</v>
       </c>
       <c r="H486">
         <v>0.7466494750131597</v>
@@ -13010,16 +13010,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.794590715353201</v>
+        <v>0.7945907153532008</v>
       </c>
       <c r="C487">
-        <v>0.7286405547122646</v>
+        <v>0.7286405547122645</v>
       </c>
       <c r="D487">
         <v>0.3811610193940829</v>
       </c>
       <c r="E487">
-        <v>0.7082182391926574</v>
+        <v>0.7082182391926573</v>
       </c>
       <c r="F487">
         <v>0.4652352393219629</v>
@@ -13028,7 +13028,7 @@
         <v>0.7067245404666549</v>
       </c>
       <c r="H487">
-        <v>0.70178674788315</v>
+        <v>0.7017867478831499</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13036,7 +13036,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.7334467301369202</v>
+        <v>0.7334467301369201</v>
       </c>
       <c r="C488">
         <v>0.7314635479249727</v>
@@ -13045,16 +13045,16 @@
         <v>0.3969576249451168</v>
       </c>
       <c r="E488">
-        <v>0.7108074522914496</v>
+        <v>0.7108074522914495</v>
       </c>
       <c r="F488">
         <v>0.4395193367095646</v>
       </c>
       <c r="G488">
-        <v>0.7082362762475647</v>
+        <v>0.7082362762475646</v>
       </c>
       <c r="H488">
-        <v>0.7035176413669281</v>
+        <v>0.703517641366928</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13062,25 +13062,25 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.7334467301369204</v>
+        <v>0.7334467301369202</v>
       </c>
       <c r="C489">
         <v>0.7314635479249726</v>
       </c>
       <c r="D489">
-        <v>0.3969576249451168</v>
+        <v>0.3969576249451169</v>
       </c>
       <c r="E489">
         <v>0.7108074522914495</v>
       </c>
       <c r="F489">
-        <v>0.4395193367095647</v>
+        <v>0.4395193367095646</v>
       </c>
       <c r="G489">
-        <v>0.7082362762475647</v>
+        <v>0.7082362762475646</v>
       </c>
       <c r="H489">
-        <v>0.7035176413669281</v>
+        <v>0.703517641366928</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13097,13 +13097,13 @@
         <v>0.5436401865062715</v>
       </c>
       <c r="E490">
-        <v>0.8775127896652519</v>
+        <v>0.8775127896652518</v>
       </c>
       <c r="F490">
         <v>0.609395055869833</v>
       </c>
       <c r="G490">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258971</v>
       </c>
       <c r="H490">
         <v>0.8709831916990521</v>
@@ -13152,10 +13152,10 @@
         <v>0.877512789665252</v>
       </c>
       <c r="F492">
-        <v>0.6093950558698331</v>
+        <v>0.609395055869833</v>
       </c>
       <c r="G492">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258972</v>
       </c>
       <c r="H492">
         <v>0.8709831916990523</v>
@@ -13166,7 +13166,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.8659286047154906</v>
+        <v>0.8659286047154907</v>
       </c>
       <c r="C493">
         <v>0.903454464569669</v>
@@ -13178,13 +13178,13 @@
         <v>0.8775127896652519</v>
       </c>
       <c r="F493">
-        <v>0.609395055869833</v>
+        <v>0.6093950558698329</v>
       </c>
       <c r="G493">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258971</v>
       </c>
       <c r="H493">
-        <v>0.8709831916990521</v>
+        <v>0.8709831916990524</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13192,7 +13192,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.8659286047154908</v>
+        <v>0.8659286047154905</v>
       </c>
       <c r="C494">
         <v>0.9034544645696689</v>
@@ -13207,7 +13207,7 @@
         <v>0.609395055869833</v>
       </c>
       <c r="G494">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258971</v>
       </c>
       <c r="H494">
         <v>0.8709831916990521</v>
@@ -13218,7 +13218,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.7958934422432404</v>
+        <v>0.7958934422432401</v>
       </c>
       <c r="C495">
         <v>0.9402277596233218</v>
@@ -13227,16 +13227,16 @@
         <v>0.2799439531901588</v>
       </c>
       <c r="E495">
-        <v>0.9122009035178514</v>
+        <v>0.9122009035178517</v>
       </c>
       <c r="F495">
-        <v>0.4368779987297955</v>
+        <v>0.4368779987297954</v>
       </c>
       <c r="G495">
-        <v>0.9073120085479708</v>
+        <v>0.9073120085479707</v>
       </c>
       <c r="H495">
-        <v>0.9019652086473825</v>
+        <v>0.9019652086473824</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13244,7 +13244,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.806362455183764</v>
+        <v>0.8063624551837637</v>
       </c>
       <c r="C496">
         <v>0.9609819192820297</v>
@@ -13259,10 +13259,10 @@
         <v>0.5248730930350529</v>
       </c>
       <c r="G496">
-        <v>0.9295099063693084</v>
+        <v>0.9295099063693083</v>
       </c>
       <c r="H496">
-        <v>0.9232450511954365</v>
+        <v>0.9232450511954364</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13270,7 +13270,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>0.7958934422432404</v>
+        <v>0.7958934422432401</v>
       </c>
       <c r="C497">
         <v>0.9402277596233218</v>
@@ -13279,16 +13279,16 @@
         <v>0.2799439531901588</v>
       </c>
       <c r="E497">
-        <v>0.9122009035178514</v>
+        <v>0.9122009035178517</v>
       </c>
       <c r="F497">
-        <v>0.4368779987297955</v>
+        <v>0.4368779987297954</v>
       </c>
       <c r="G497">
-        <v>0.9073120085479708</v>
+        <v>0.9073120085479707</v>
       </c>
       <c r="H497">
-        <v>0.9019652086473825</v>
+        <v>0.9019652086473824</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13305,7 +13305,7 @@
         <v>0.380844343254707</v>
       </c>
       <c r="E498">
-        <v>0.870700714039856</v>
+        <v>0.8707007140398558</v>
       </c>
       <c r="F498">
         <v>0.471034285847507</v>
@@ -13314,7 +13314,7 @@
         <v>0.8654810141350223</v>
       </c>
       <c r="H498">
-        <v>0.8610553414981448</v>
+        <v>0.8610553414981447</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13331,16 +13331,16 @@
         <v>0.380844343254707</v>
       </c>
       <c r="E499">
-        <v>0.870700714039856</v>
+        <v>0.8707007140398558</v>
       </c>
       <c r="F499">
         <v>0.471034285847507</v>
       </c>
       <c r="G499">
-        <v>0.8654810141350223</v>
+        <v>0.8654810141350222</v>
       </c>
       <c r="H499">
-        <v>0.8610553414981448</v>
+        <v>0.8610553414981446</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13357,16 +13357,16 @@
         <v>0.380844343254707</v>
       </c>
       <c r="E500">
-        <v>0.8707007140398559</v>
+        <v>0.8707007140398558</v>
       </c>
       <c r="F500">
         <v>0.471034285847507</v>
       </c>
       <c r="G500">
-        <v>0.8654810141350223</v>
+        <v>0.8654810141350222</v>
       </c>
       <c r="H500">
-        <v>0.8610553414981448</v>
+        <v>0.8610553414981446</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13374,7 +13374,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.7662864761248505</v>
+        <v>0.7662864761248503</v>
       </c>
       <c r="C501">
         <v>0.7499747279276385</v>
@@ -13389,10 +13389,10 @@
         <v>0.4555142552503872</v>
       </c>
       <c r="G501">
-        <v>0.7252145596531566</v>
+        <v>0.7252145596531565</v>
       </c>
       <c r="H501">
-        <v>0.721233888401061</v>
+        <v>0.7212338884010608</v>
       </c>
     </row>
   </sheetData>
